--- a/trends_analysis/trends.xlsx
+++ b/trends_analysis/trends.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="844">
   <si>
     <t>Dataset Statistics</t>
   </si>
@@ -201,36 +201,36 @@
     <t>C&amp;C</t>
   </si>
   <si>
+    <t>Smart home IoT IDS</t>
+  </si>
+  <si>
+    <t>pure emul</t>
+  </si>
+  <si>
+    <t>DoS</t>
+  </si>
+  <si>
     <t>CPS IDS for OPC UA</t>
   </si>
   <si>
-    <t>pure emul</t>
-  </si>
-  <si>
-    <t>DoS</t>
+    <t>real + emul</t>
+  </si>
+  <si>
+    <t>Reconaissance</t>
   </si>
   <si>
     <t>HTTP(S) web attacks</t>
   </si>
   <si>
-    <t>real + emul</t>
-  </si>
-  <si>
-    <t>Reconaissance</t>
+    <t>pure real</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
   </si>
   <si>
     <t>VoIP NIDS</t>
   </si>
   <si>
-    <t>pure real</t>
-  </si>
-  <si>
-    <t>Vulnerability</t>
-  </si>
-  <si>
-    <t>Smart home IoT IDS</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -243,18 +243,18 @@
     <t>Unspec</t>
   </si>
   <si>
+    <t>Layer 7 web DoS</t>
+  </si>
+  <si>
+    <t>Home IoT monitoring</t>
+  </si>
+  <si>
+    <t>Data Format Analysis</t>
+  </si>
+  <si>
     <t>Encrypted traffic NIDS</t>
   </si>
   <si>
-    <t>Layer 7 web DoS</t>
-  </si>
-  <si>
-    <t>Data Format Analysis</t>
-  </si>
-  <si>
-    <t>Home IoT monitoring</t>
-  </si>
-  <si>
     <t>Unique combinations</t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>50M pkts1.5M ,flows</t>
   </si>
   <si>
-    <t>12d</t>
+    <t>7d 16h</t>
   </si>
   <si>
     <t>GTCS</t>
@@ -1188,7 +1188,7 @@
     <t>517k flows</t>
   </si>
   <si>
-    <t>9d</t>
+    <t>5d 11h</t>
   </si>
   <si>
     <t>IoT network intrusion</t>
@@ -1218,7 +1218,7 @@
     <t>212M pkts 21.2M flows</t>
   </si>
   <si>
-    <t>27d 5h</t>
+    <t>6d 11h 45m</t>
   </si>
   <si>
     <t>MedBIoT</t>
@@ -1257,6 +1257,18 @@
     <t>10mo</t>
   </si>
   <si>
+    <t>InSDN</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>15.3M pkts 344k flows</t>
+  </si>
+  <si>
+    <t>5d 6h 40m</t>
+  </si>
+  <si>
     <t>X-IIoTID</t>
   </si>
   <si>
@@ -1278,24 +1290,24 @@
     <t>2 x 8m</t>
   </si>
   <si>
+    <t>CCD-INID-V1</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>91.6k flows</t>
+  </si>
+  <si>
+    <t>13h 45m</t>
+  </si>
+  <si>
     <t>DAPT 2020</t>
   </si>
   <si>
     <t>77.1M pkts 86.7k flows</t>
   </si>
   <si>
-    <t>InSDN</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>15.3M pkts 344k flows</t>
-  </si>
-  <si>
-    <t>1mo 7d</t>
-  </si>
-  <si>
     <t>OPC UA</t>
   </si>
   <si>
@@ -1329,7 +1341,7 @@
     <t>907.8k flows</t>
   </si>
   <si>
-    <t>12d 6h</t>
+    <t>12d 10h</t>
   </si>
   <si>
     <t>VOIP Enterprise -- Attack</t>
@@ -1350,7 +1362,7 @@
     <t>10.3k + 2.6k flows</t>
   </si>
   <si>
-    <t>7d + 7d</t>
+    <t>1d + 1d</t>
   </si>
   <si>
     <t>AWID3</t>
@@ -1365,15 +1377,6 @@
     <t>2h 20m</t>
   </si>
   <si>
-    <t>CCD-INID-V1</t>
-  </si>
-  <si>
-    <t>BDO</t>
-  </si>
-  <si>
-    <t>91.6k flows</t>
-  </si>
-  <si>
     <t>CyberFORCE Scenario</t>
   </si>
   <si>
@@ -1395,6 +1398,60 @@
     <t>1d 23h</t>
   </si>
   <si>
+    <t>I-Sec</t>
+  </si>
+  <si>
+    <t>P2P</t>
+  </si>
+  <si>
+    <t>532k flows</t>
+  </si>
+  <si>
+    <t>PWNJUTSU</t>
+  </si>
+  <si>
+    <t>178.4M pkts 45.1M recs</t>
+  </si>
+  <si>
+    <t>22 x 1-15d, 116d total</t>
+  </si>
+  <si>
+    <t>Unraveled</t>
+  </si>
+  <si>
+    <t>BCVO</t>
+  </si>
+  <si>
+    <t>packet (bin),flows (bi),logs (both)</t>
+  </si>
+  <si>
+    <t>252M pkts 6.86M flows</t>
+  </si>
+  <si>
+    <t>40d 13h</t>
+  </si>
+  <si>
+    <t>USB-IDS-1</t>
+  </si>
+  <si>
+    <t>4.5M flows</t>
+  </si>
+  <si>
+    <t>16 x 10m &amp; 2d 19h</t>
+  </si>
+  <si>
+    <t>CIC IoT dataset 2022</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>120M pkts 466k recs</t>
+  </si>
+  <si>
+    <t>22d 13h</t>
+  </si>
+  <si>
     <t>HIKARI-2021</t>
   </si>
   <si>
@@ -1407,60 +1464,6 @@
     <t>1d 14.5h</t>
   </si>
   <si>
-    <t>I-Sec</t>
-  </si>
-  <si>
-    <t>P2P</t>
-  </si>
-  <si>
-    <t>532k flows</t>
-  </si>
-  <si>
-    <t>PWNJUTSU</t>
-  </si>
-  <si>
-    <t>178.4M pkts 45.1M recs</t>
-  </si>
-  <si>
-    <t>22 x 1-15d, 116d total</t>
-  </si>
-  <si>
-    <t>Unraveled</t>
-  </si>
-  <si>
-    <t>BCVO</t>
-  </si>
-  <si>
-    <t>packet (bin),flows (bi),logs (both)</t>
-  </si>
-  <si>
-    <t>252M pkts 6.86M flows</t>
-  </si>
-  <si>
-    <t>40d 13h</t>
-  </si>
-  <si>
-    <t>USB-IDS-1</t>
-  </si>
-  <si>
-    <t>4.5M flows</t>
-  </si>
-  <si>
-    <t>16 x 10m</t>
-  </si>
-  <si>
-    <t>CIC IoT dataset 2022</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>120M pkts 466k recs</t>
-  </si>
-  <si>
-    <t>22d 13h</t>
-  </si>
-  <si>
     <t>LUFlow</t>
   </si>
   <si>
@@ -1470,6 +1473,15 @@
     <t>8mo</t>
   </si>
   <si>
+    <t>UWF-Zeek Data22</t>
+  </si>
+  <si>
+    <t>18.56M flows</t>
+  </si>
+  <si>
+    <t>31d 5h</t>
+  </si>
+  <si>
     <t>VHS-22</t>
   </si>
   <si>
@@ -1479,16 +1491,7 @@
     <t>27.7M flows</t>
   </si>
   <si>
-    <t>23d</t>
-  </si>
-  <si>
-    <t>UWF-Zeek Data22</t>
-  </si>
-  <si>
-    <t>18.56M flows</t>
-  </si>
-  <si>
-    <t>31d 5h</t>
+    <t>5d 5h</t>
   </si>
   <si>
     <t>AIT Log Dataset 2.0</t>
@@ -3569,7 +3572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3626,6 +3629,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3677,7 +3684,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3718,24 +3725,45 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3852,11 +3880,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1543454269"/>
-        <c:axId val="715575277"/>
+        <c:axId val="1252419226"/>
+        <c:axId val="1727420644"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1543454269"/>
+        <c:axId val="1252419226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,10 +3936,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715575277"/>
+        <c:crossAx val="1727420644"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="715575277"/>
+        <c:axId val="1727420644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +4003,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1543454269"/>
+        <c:crossAx val="1252419226"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4074,11 +4102,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1156799342"/>
-        <c:axId val="1921469346"/>
+        <c:axId val="2041388821"/>
+        <c:axId val="1603541195"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1156799342"/>
+        <c:axId val="2041388821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,10 +4158,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1921469346"/>
+        <c:crossAx val="1603541195"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1921469346"/>
+        <c:axId val="1603541195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4236,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1156799342"/>
+        <c:crossAx val="2041388821"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4307,11 +4335,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1959345848"/>
-        <c:axId val="1420229749"/>
+        <c:axId val="1451268902"/>
+        <c:axId val="1668455592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1959345848"/>
+        <c:axId val="1451268902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,10 +4391,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1420229749"/>
+        <c:crossAx val="1668455592"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1420229749"/>
+        <c:axId val="1668455592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +4469,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1959345848"/>
+        <c:crossAx val="1451268902"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4546,11 +4574,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="378578831"/>
-        <c:axId val="1588962990"/>
+        <c:axId val="981000249"/>
+        <c:axId val="92215979"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378578831"/>
+        <c:axId val="981000249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,10 +4630,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588962990"/>
+        <c:crossAx val="92215979"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588962990"/>
+        <c:axId val="92215979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,7 +4708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378578831"/>
+        <c:crossAx val="981000249"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6267,12 +6295,12 @@
     </row>
     <row r="29">
       <c r="L29" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"APT simulation")</f>
-        <v>APT simulation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SDN NIDS")</f>
+        <v>SDN NIDS</v>
       </c>
       <c r="M29" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L29)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>48</v>
@@ -6295,12 +6323,12 @@
         <v>2016.0</v>
       </c>
       <c r="L30" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SDN NIDS")</f>
-        <v>SDN NIDS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Smart home IoT IDS")</f>
+        <v>Smart home IoT IDS</v>
       </c>
       <c r="M30" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L30)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>52</v>
@@ -6338,12 +6366,12 @@
         <v>15</v>
       </c>
       <c r="L31" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CPS IDS for OPC UA")</f>
-        <v>CPS IDS for OPC UA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"APT simulation")</f>
+        <v>APT simulation</v>
       </c>
       <c r="M31" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L31)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>54</v>
@@ -6393,8 +6421,8 @@
         <v>0.6111111111</v>
       </c>
       <c r="L32" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HTTP(S) web attacks")</f>
-        <v>HTTP(S) web attacks</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CPS IDS for OPC UA")</f>
+        <v>CPS IDS for OPC UA</v>
       </c>
       <c r="M32" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L32)</f>
@@ -6458,8 +6486,8 @@
         <v>0.3529411765</v>
       </c>
       <c r="L33" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VoIP NIDS")</f>
-        <v>VoIP NIDS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HTTP(S) web attacks")</f>
+        <v>HTTP(S) web attacks</v>
       </c>
       <c r="M33" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L33)</f>
@@ -6523,8 +6551,8 @@
         <v>0.7058823529</v>
       </c>
       <c r="L34" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Smart home IoT IDS")</f>
-        <v>Smart home IoT IDS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VoIP NIDS")</f>
+        <v>VoIP NIDS</v>
       </c>
       <c r="M34" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L34)</f>
@@ -6653,8 +6681,8 @@
         <v>0.6078431373</v>
       </c>
       <c r="L36" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Encrypted traffic NIDS")</f>
-        <v>Encrypted traffic NIDS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Layer 7 web DoS")</f>
+        <v>Layer 7 web DoS</v>
       </c>
       <c r="M36" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L36)</f>
@@ -6691,8 +6719,8 @@
         <v>0.6470588235</v>
       </c>
       <c r="L37" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Layer 7 web DoS")</f>
-        <v>Layer 7 web DoS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Home IoT monitoring")</f>
+        <v>Home IoT monitoring</v>
       </c>
       <c r="M37" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L37)</f>
@@ -6732,8 +6760,8 @@
         <v>0.2156862745</v>
       </c>
       <c r="L38" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Home IoT monitoring")</f>
-        <v>Home IoT monitoring</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Encrypted traffic NIDS")</f>
+        <v>Encrypted traffic NIDS</v>
       </c>
       <c r="M38" s="5">
         <f>COUNTIF(Datasets!$E$2:$E1652, L38)</f>
@@ -8679,7 +8707,7 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="T107" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
@@ -8702,7 +8730,7 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="T108" s="5" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109">
@@ -8722,7 +8750,7 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="T109" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110">
@@ -8745,7 +8773,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="T110" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
@@ -8768,7 +8796,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="T111" s="5" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112">
@@ -8791,7 +8819,7 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="T112" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
@@ -8814,7 +8842,7 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="T113" s="5" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
@@ -8837,7 +8865,7 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="T114" s="5" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
@@ -8854,13 +8882,13 @@
         <v>24100000</v>
       </c>
       <c r="D115" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.3633333333334)</f>
-        <v>412.3633333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.53000000000003)</f>
+        <v>411.53</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="T115" s="5" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116">
@@ -8883,7 +8911,7 @@
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="T116" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117">
@@ -8906,7 +8934,7 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="T117" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
@@ -8923,8 +8951,8 @@
         <v>43576859.6</v>
       </c>
       <c r="D118" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),797.7338461538461)</f>
-        <v>797.7338462</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.4261538461537)</f>
+        <v>694.4261538</v>
       </c>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
@@ -8938,16 +8966,16 @@
         <v>2021</v>
       </c>
       <c r="B119" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4866E7)</f>
-        <v>14866000</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.7036E7)</f>
+        <v>27036000</v>
       </c>
       <c r="C119" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3371055555555556E7)</f>
-        <v>13371055.56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3391388888888888E7)</f>
+        <v>13391388.89</v>
       </c>
       <c r="D119" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.28727272727272)</f>
-        <v>191.2872727</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.35333333333332)</f>
+        <v>148.3533333</v>
       </c>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
@@ -8969,13 +8997,13 @@
         <v>15765766.67</v>
       </c>
       <c r="D120" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0185714285714)</f>
-        <v>343.0185714</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0185714285714)</f>
+        <v>268.0185714</v>
       </c>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="T120" s="5" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121">
@@ -8992,27 +9020,27 @@
         <v>8194630.769</v>
       </c>
       <c r="D121" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.9083333333333)</f>
-        <v>1149.908333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.325)</f>
+        <v>1149.325</v>
       </c>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="T121" s="5" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122">
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="T122" s="5" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="T123" s="5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124">
@@ -9022,7 +9050,7 @@
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="T124" s="5" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125">
@@ -9032,7 +9060,7 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="T125" s="5" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126">
@@ -9049,14 +9077,14 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="T127" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128">
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="T128" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129">
@@ -9181,11 +9209,11 @@
       </c>
       <c r="B142" s="5">
         <f>COUNTIF(Datasets!$P$2:$P1652, A142)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C142" s="8">
         <f t="shared" ref="C142:C145" si="17">B142/$H$27</f>
-        <v>0.3258426966</v>
+        <v>0.2808988764</v>
       </c>
       <c r="E142" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(UNIQUE(Datasets!$P$2:$P1652), 1, True)"),"contiguous")</f>
@@ -9193,11 +9221,11 @@
       </c>
       <c r="F142" s="5">
         <f>COUNTIFS(Datasets!$P$2:$P1652, E142, Datasets!$B$2:$B1652, "&gt;=" &amp; $H$24)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" ref="G142:G145" si="18">F142/$H$26</f>
-        <v>0.2549019608</v>
+        <v>0.1960784314</v>
       </c>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
@@ -9212,11 +9240,11 @@
       </c>
       <c r="B143" s="5">
         <f>COUNTIF(Datasets!$P$2:$P1652, A143)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C143" s="8">
         <f t="shared" si="17"/>
-        <v>0.3707865169</v>
+        <v>0.4382022472</v>
       </c>
       <c r="E143" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"discontiguous")</f>
@@ -9224,11 +9252,11 @@
       </c>
       <c r="F143" s="5">
         <f>COUNTIFS(Datasets!$P$2:$P1652, E143, Datasets!$B$2:$B1652, "&gt;=" &amp; $H$24)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="18"/>
-        <v>0.4705882353</v>
+        <v>0.568627451</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>142</v>
@@ -9246,11 +9274,11 @@
       </c>
       <c r="B144" s="5">
         <f>COUNTIF(Datasets!$P$2:$P1652, A144)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" s="8">
         <f t="shared" si="17"/>
-        <v>0.1235955056</v>
+        <v>0.1123595506</v>
       </c>
       <c r="E144" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"n.s.")</f>
@@ -9258,11 +9286,11 @@
       </c>
       <c r="F144" s="5">
         <f>COUNTIFS(Datasets!$P$2:$P1652, E144, Datasets!$B$2:$B1652, "&gt;=" &amp; $H$24)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="18"/>
-        <v>0.137254902</v>
+        <v>0.1176470588</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>143</v>
@@ -9286,11 +9314,11 @@
       </c>
       <c r="B145" s="5">
         <f>COUNTIF(Datasets!$P$2:$P1652, A145)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="8">
         <f t="shared" si="17"/>
-        <v>0.1797752809</v>
+        <v>0.1685393258</v>
       </c>
       <c r="E145" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"periodic")</f>
@@ -9298,11 +9326,11 @@
       </c>
       <c r="F145" s="5">
         <f>COUNTIFS(Datasets!$P$2:$P1652, E145, Datasets!$B$2:$B1652, "&gt;=" &amp; $H$24)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="18"/>
-        <v>0.137254902</v>
+        <v>0.1176470588</v>
       </c>
       <c r="K145" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(T51:T151)"),"large military")</f>
@@ -22907,10 +22935,10 @@
         <v>1.62E7</v>
       </c>
       <c r="O33" s="3">
-        <v>336.0</v>
+        <v>331.0</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="15" t="s">
         <v>230</v>
@@ -24140,7 +24168,7 @@
         <v>1500000.0</v>
       </c>
       <c r="O50" s="3">
-        <v>288.0</v>
+        <v>184.0</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>245</v>
@@ -24213,10 +24241,10 @@
         <v>517000.0</v>
       </c>
       <c r="O51" s="3">
-        <v>216.0</v>
+        <v>131.0</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="Q51" s="15" t="s">
         <v>230</v>
@@ -24432,7 +24460,7 @@
         <v>2.12E7</v>
       </c>
       <c r="O54" s="3">
-        <v>653.0</v>
+        <v>156.0</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>245</v>
@@ -24685,7 +24713,7 @@
         <v>414</v>
       </c>
       <c r="B58" s="3">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C58" s="3">
         <v>2019.0</v>
@@ -24694,37 +24722,37 @@
         <v>2020.0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="H58" s="13">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="K58" s="14">
-        <v>68.0</v>
+        <v>84.0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M58" s="13" t="s">
-        <v>183</v>
+      <c r="M58" s="13">
+        <v>1.53E7</v>
       </c>
       <c r="N58" s="13">
-        <v>820800.0</v>
+        <v>344000.0</v>
       </c>
       <c r="O58" s="3">
-        <v>151.13</v>
+        <v>127.0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>245</v>
@@ -24733,7 +24761,7 @@
         <v>230</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>188</v>
@@ -24747,66 +24775,66 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B59" s="3">
-        <v>2020.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C59" s="3">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D59" s="3">
         <v>2020.0</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>227</v>
       </c>
       <c r="H59" s="13">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="K59" s="14">
-        <v>12.0</v>
+        <v>68.0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="M59" s="13">
-        <v>1.738E7</v>
-      </c>
-      <c r="N59" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="M59" s="13" t="s">
         <v>183</v>
       </c>
+      <c r="N59" s="13">
+        <v>820800.0</v>
+      </c>
       <c r="O59" s="3">
-        <v>0.27</v>
+        <v>151.13</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="R59" s="15" t="s">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>188</v>
@@ -24840,46 +24868,46 @@
         <v>2020.0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="H60" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K60" s="14">
         <v>12.0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K60" s="14">
-        <v>85.0</v>
-      </c>
       <c r="L60" s="3" t="s">
-        <v>184</v>
+        <v>422</v>
       </c>
       <c r="M60" s="13">
-        <v>7.71E7</v>
-      </c>
-      <c r="N60" s="13">
-        <v>86700.0</v>
+        <v>1.738E7</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="O60" s="3">
-        <v>40.0</v>
+        <v>0.27</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>185</v>
       </c>
       <c r="Q60" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="R60" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>188</v>
@@ -24893,88 +24921,1238 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B61" s="3">
+      <c r="A61" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B61" s="18">
+        <v>2021.0</v>
+      </c>
+      <c r="C61" s="18">
         <v>2020.0</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="18">
         <v>2020.0</v>
       </c>
-      <c r="D61" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K61" s="14">
-        <v>84.0</v>
-      </c>
-      <c r="L61" s="3" t="s">
+      <c r="E61" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K61" s="19">
+        <v>88.0</v>
+      </c>
+      <c r="L61" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="M61" s="13">
-        <v>1.53E7</v>
-      </c>
-      <c r="N61" s="13">
-        <v>344000.0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>888.0</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q61" s="15" t="s">
+      <c r="M61" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="N61" s="18">
+        <v>91600.0</v>
+      </c>
+      <c r="O61" s="20">
+        <v>13.75</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q61" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="R61" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="S61" s="3" t="s">
+      <c r="R61" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="S61" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="T61" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="U61" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="T61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y61" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
+      <c r="AQ61" s="22"/>
+      <c r="AR61" s="22"/>
+      <c r="AS61" s="22"/>
+      <c r="AT61" s="22"/>
+      <c r="AU61" s="22"/>
+      <c r="AV61" s="22"/>
+      <c r="AW61" s="22"/>
+      <c r="AX61" s="22"/>
+      <c r="AY61" s="22"/>
+      <c r="AZ61" s="22"/>
+      <c r="BA61" s="22"/>
+      <c r="BB61" s="22"/>
+      <c r="BC61" s="22"/>
+      <c r="BD61" s="22"/>
+      <c r="BE61" s="22"/>
+      <c r="BF61" s="22"/>
+      <c r="BG61" s="22"/>
+      <c r="BH61" s="22"/>
+      <c r="BI61" s="22"/>
+      <c r="BJ61" s="22"/>
+      <c r="BK61" s="22"/>
+      <c r="BL61" s="22"/>
+      <c r="BM61" s="22"/>
+      <c r="BN61" s="22"/>
+      <c r="BO61" s="22"/>
+      <c r="BP61" s="22"/>
+      <c r="BQ61" s="22"/>
+      <c r="BR61" s="22"/>
+      <c r="BS61" s="22"/>
+      <c r="BT61" s="22"/>
+      <c r="BU61" s="22"/>
+      <c r="BV61" s="22"/>
+      <c r="BW61" s="22"/>
+      <c r="BX61" s="22"/>
+      <c r="BY61" s="22"/>
+      <c r="BZ61" s="22"/>
+      <c r="CA61" s="22"/>
+      <c r="CB61" s="22"/>
+      <c r="CC61" s="22"/>
+      <c r="CD61" s="22"/>
+      <c r="CE61" s="22"/>
+      <c r="CF61" s="22"/>
+      <c r="CG61" s="22"/>
+      <c r="CH61" s="22"/>
+      <c r="CI61" s="22"/>
+      <c r="CJ61" s="22"/>
+      <c r="CK61" s="22"/>
+      <c r="CL61" s="22"/>
+      <c r="CM61" s="22"/>
+      <c r="CN61" s="22"/>
+      <c r="CO61" s="22"/>
+      <c r="CP61" s="22"/>
+      <c r="CQ61" s="22"/>
+      <c r="CR61" s="22"/>
+      <c r="CS61" s="22"/>
+      <c r="CT61" s="22"/>
+      <c r="CU61" s="22"/>
+      <c r="CV61" s="22"/>
+      <c r="CW61" s="22"/>
+      <c r="CX61" s="22"/>
+      <c r="CY61" s="22"/>
+      <c r="CZ61" s="22"/>
+      <c r="DA61" s="22"/>
+      <c r="DB61" s="22"/>
+      <c r="DC61" s="22"/>
+      <c r="DD61" s="22"/>
+      <c r="DE61" s="22"/>
+      <c r="DF61" s="22"/>
+      <c r="DG61" s="22"/>
+      <c r="DH61" s="22"/>
+      <c r="DI61" s="22"/>
+      <c r="DJ61" s="22"/>
+      <c r="DK61" s="22"/>
+      <c r="DL61" s="22"/>
+      <c r="DM61" s="22"/>
+      <c r="DN61" s="22"/>
+      <c r="DO61" s="22"/>
+      <c r="DP61" s="22"/>
+      <c r="DQ61" s="22"/>
+      <c r="DR61" s="22"/>
+      <c r="DS61" s="22"/>
+      <c r="DT61" s="22"/>
+      <c r="DU61" s="22"/>
+      <c r="DV61" s="22"/>
+      <c r="DW61" s="22"/>
+      <c r="DX61" s="22"/>
+      <c r="DY61" s="22"/>
+      <c r="DZ61" s="22"/>
+      <c r="EA61" s="22"/>
+      <c r="EB61" s="22"/>
+      <c r="EC61" s="22"/>
+      <c r="ED61" s="22"/>
+      <c r="EE61" s="22"/>
+      <c r="EF61" s="22"/>
+      <c r="EG61" s="22"/>
+      <c r="EH61" s="22"/>
+      <c r="EI61" s="22"/>
+      <c r="EJ61" s="22"/>
+      <c r="EK61" s="22"/>
+      <c r="EL61" s="22"/>
+      <c r="EM61" s="22"/>
+      <c r="EN61" s="22"/>
+      <c r="EO61" s="22"/>
+      <c r="EP61" s="22"/>
+      <c r="EQ61" s="22"/>
+      <c r="ER61" s="22"/>
+      <c r="ES61" s="22"/>
+      <c r="ET61" s="22"/>
+      <c r="EU61" s="22"/>
+      <c r="EV61" s="22"/>
+      <c r="EW61" s="22"/>
+      <c r="EX61" s="22"/>
+      <c r="EY61" s="22"/>
+      <c r="EZ61" s="22"/>
+      <c r="FA61" s="22"/>
+      <c r="FB61" s="22"/>
+      <c r="FC61" s="22"/>
+      <c r="FD61" s="22"/>
+      <c r="FE61" s="22"/>
+      <c r="FF61" s="22"/>
+      <c r="FG61" s="22"/>
+      <c r="FH61" s="22"/>
+      <c r="FI61" s="22"/>
+      <c r="FJ61" s="22"/>
+      <c r="FK61" s="22"/>
+      <c r="FL61" s="22"/>
+      <c r="FM61" s="22"/>
+      <c r="FN61" s="22"/>
+      <c r="FO61" s="22"/>
+      <c r="FP61" s="22"/>
+      <c r="FQ61" s="22"/>
+      <c r="FR61" s="22"/>
+      <c r="FS61" s="22"/>
+      <c r="FT61" s="22"/>
+      <c r="FU61" s="22"/>
+      <c r="FV61" s="22"/>
+      <c r="FW61" s="22"/>
+      <c r="FX61" s="22"/>
+      <c r="FY61" s="22"/>
+      <c r="FZ61" s="22"/>
+      <c r="GA61" s="22"/>
+      <c r="GB61" s="22"/>
+      <c r="GC61" s="22"/>
+      <c r="GD61" s="22"/>
+      <c r="GE61" s="22"/>
+      <c r="GF61" s="22"/>
+      <c r="GG61" s="22"/>
+      <c r="GH61" s="22"/>
+      <c r="GI61" s="22"/>
+      <c r="GJ61" s="22"/>
+      <c r="GK61" s="22"/>
+      <c r="GL61" s="22"/>
+      <c r="GM61" s="22"/>
+      <c r="GN61" s="22"/>
+      <c r="GO61" s="22"/>
+      <c r="GP61" s="22"/>
+      <c r="GQ61" s="22"/>
+      <c r="GR61" s="22"/>
+      <c r="GS61" s="22"/>
+      <c r="GT61" s="22"/>
+      <c r="GU61" s="22"/>
+      <c r="GV61" s="22"/>
+      <c r="GW61" s="22"/>
+      <c r="GX61" s="22"/>
+      <c r="GY61" s="22"/>
+      <c r="GZ61" s="22"/>
+      <c r="HA61" s="22"/>
+      <c r="HB61" s="22"/>
+      <c r="HC61" s="22"/>
+      <c r="HD61" s="22"/>
+      <c r="HE61" s="22"/>
+      <c r="HF61" s="22"/>
+      <c r="HG61" s="22"/>
+      <c r="HH61" s="22"/>
+      <c r="HI61" s="22"/>
+      <c r="HJ61" s="22"/>
+      <c r="HK61" s="22"/>
+      <c r="HL61" s="22"/>
+      <c r="HM61" s="22"/>
+      <c r="HN61" s="22"/>
+      <c r="HO61" s="22"/>
+      <c r="HP61" s="22"/>
+      <c r="HQ61" s="22"/>
+      <c r="HR61" s="22"/>
+      <c r="HS61" s="22"/>
+      <c r="HT61" s="22"/>
+      <c r="HU61" s="22"/>
+      <c r="HV61" s="22"/>
+      <c r="HW61" s="22"/>
+      <c r="HX61" s="22"/>
+      <c r="HY61" s="22"/>
+      <c r="HZ61" s="22"/>
+      <c r="IA61" s="22"/>
+      <c r="IB61" s="22"/>
+      <c r="IC61" s="22"/>
+      <c r="ID61" s="22"/>
+      <c r="IE61" s="22"/>
+      <c r="IF61" s="22"/>
+      <c r="IG61" s="22"/>
+      <c r="IH61" s="22"/>
+      <c r="II61" s="22"/>
+      <c r="IJ61" s="22"/>
+      <c r="IK61" s="22"/>
+      <c r="IL61" s="22"/>
+      <c r="IM61" s="22"/>
+      <c r="IN61" s="22"/>
+      <c r="IO61" s="22"/>
+      <c r="IP61" s="22"/>
+      <c r="IQ61" s="22"/>
+      <c r="IR61" s="22"/>
+      <c r="IS61" s="22"/>
+      <c r="IT61" s="22"/>
+      <c r="IU61" s="22"/>
+      <c r="IV61" s="22"/>
+      <c r="IW61" s="22"/>
+      <c r="IX61" s="22"/>
+      <c r="IY61" s="22"/>
+      <c r="IZ61" s="22"/>
+      <c r="JA61" s="22"/>
+      <c r="JB61" s="22"/>
+      <c r="JC61" s="22"/>
+      <c r="JD61" s="22"/>
+      <c r="JE61" s="22"/>
+      <c r="JF61" s="22"/>
+      <c r="JG61" s="22"/>
+      <c r="JH61" s="22"/>
+      <c r="JI61" s="22"/>
+      <c r="JJ61" s="22"/>
+      <c r="JK61" s="22"/>
+      <c r="JL61" s="22"/>
+      <c r="JM61" s="22"/>
+      <c r="JN61" s="22"/>
+      <c r="JO61" s="22"/>
+      <c r="JP61" s="22"/>
+      <c r="JQ61" s="22"/>
+      <c r="JR61" s="22"/>
+      <c r="JS61" s="22"/>
+      <c r="JT61" s="22"/>
+      <c r="JU61" s="22"/>
+      <c r="JV61" s="22"/>
+      <c r="JW61" s="22"/>
+      <c r="JX61" s="22"/>
+      <c r="JY61" s="22"/>
+      <c r="JZ61" s="22"/>
+      <c r="KA61" s="22"/>
+      <c r="KB61" s="22"/>
+      <c r="KC61" s="22"/>
+      <c r="KD61" s="22"/>
+      <c r="KE61" s="22"/>
+      <c r="KF61" s="22"/>
+      <c r="KG61" s="22"/>
+      <c r="KH61" s="22"/>
+      <c r="KI61" s="22"/>
+      <c r="KJ61" s="22"/>
+      <c r="KK61" s="22"/>
+      <c r="KL61" s="22"/>
+      <c r="KM61" s="22"/>
+      <c r="KN61" s="22"/>
+      <c r="KO61" s="22"/>
+      <c r="KP61" s="22"/>
+      <c r="KQ61" s="22"/>
+      <c r="KR61" s="22"/>
+      <c r="KS61" s="22"/>
+      <c r="KT61" s="22"/>
+      <c r="KU61" s="22"/>
+      <c r="KV61" s="22"/>
+      <c r="KW61" s="22"/>
+      <c r="KX61" s="22"/>
+      <c r="KY61" s="22"/>
+      <c r="KZ61" s="22"/>
+      <c r="LA61" s="22"/>
+      <c r="LB61" s="22"/>
+      <c r="LC61" s="22"/>
+      <c r="LD61" s="22"/>
+      <c r="LE61" s="22"/>
+      <c r="LF61" s="22"/>
+      <c r="LG61" s="22"/>
+      <c r="LH61" s="22"/>
+      <c r="LI61" s="22"/>
+      <c r="LJ61" s="22"/>
+      <c r="LK61" s="22"/>
+      <c r="LL61" s="22"/>
+      <c r="LM61" s="22"/>
+      <c r="LN61" s="22"/>
+      <c r="LO61" s="22"/>
+      <c r="LP61" s="22"/>
+      <c r="LQ61" s="22"/>
+      <c r="LR61" s="22"/>
+      <c r="LS61" s="22"/>
+      <c r="LT61" s="22"/>
+      <c r="LU61" s="22"/>
+      <c r="LV61" s="22"/>
+      <c r="LW61" s="22"/>
+      <c r="LX61" s="22"/>
+      <c r="LY61" s="22"/>
+      <c r="LZ61" s="22"/>
+      <c r="MA61" s="22"/>
+      <c r="MB61" s="22"/>
+      <c r="MC61" s="22"/>
+      <c r="MD61" s="22"/>
+      <c r="ME61" s="22"/>
+      <c r="MF61" s="22"/>
+      <c r="MG61" s="22"/>
+      <c r="MH61" s="22"/>
+      <c r="MI61" s="22"/>
+      <c r="MJ61" s="22"/>
+      <c r="MK61" s="22"/>
+      <c r="ML61" s="22"/>
+      <c r="MM61" s="22"/>
+      <c r="MN61" s="22"/>
+      <c r="MO61" s="22"/>
+      <c r="MP61" s="22"/>
+      <c r="MQ61" s="22"/>
+      <c r="MR61" s="22"/>
+      <c r="MS61" s="22"/>
+      <c r="MT61" s="22"/>
+      <c r="MU61" s="22"/>
+      <c r="MV61" s="22"/>
+      <c r="MW61" s="22"/>
+      <c r="MX61" s="22"/>
+      <c r="MY61" s="22"/>
+      <c r="MZ61" s="22"/>
+      <c r="NA61" s="22"/>
+      <c r="NB61" s="22"/>
+      <c r="NC61" s="22"/>
+      <c r="ND61" s="22"/>
+      <c r="NE61" s="22"/>
+      <c r="NF61" s="22"/>
+      <c r="NG61" s="22"/>
+      <c r="NH61" s="22"/>
+      <c r="NI61" s="22"/>
+      <c r="NJ61" s="22"/>
+      <c r="NK61" s="22"/>
+      <c r="NL61" s="22"/>
+      <c r="NM61" s="22"/>
+      <c r="NN61" s="22"/>
+      <c r="NO61" s="22"/>
+      <c r="NP61" s="22"/>
+      <c r="NQ61" s="22"/>
+      <c r="NR61" s="22"/>
+      <c r="NS61" s="22"/>
+      <c r="NT61" s="22"/>
+      <c r="NU61" s="22"/>
+      <c r="NV61" s="22"/>
+      <c r="NW61" s="22"/>
+      <c r="NX61" s="22"/>
+      <c r="NY61" s="22"/>
+      <c r="NZ61" s="22"/>
+      <c r="OA61" s="22"/>
+      <c r="OB61" s="22"/>
+      <c r="OC61" s="22"/>
+      <c r="OD61" s="22"/>
+      <c r="OE61" s="22"/>
+      <c r="OF61" s="22"/>
+      <c r="OG61" s="22"/>
+      <c r="OH61" s="22"/>
+      <c r="OI61" s="22"/>
+      <c r="OJ61" s="22"/>
+      <c r="OK61" s="22"/>
+      <c r="OL61" s="22"/>
+      <c r="OM61" s="22"/>
+      <c r="ON61" s="22"/>
+      <c r="OO61" s="22"/>
+      <c r="OP61" s="22"/>
+      <c r="OQ61" s="22"/>
+      <c r="OR61" s="22"/>
+      <c r="OS61" s="22"/>
+      <c r="OT61" s="22"/>
+      <c r="OU61" s="22"/>
+      <c r="OV61" s="22"/>
+      <c r="OW61" s="22"/>
+      <c r="OX61" s="22"/>
+      <c r="OY61" s="22"/>
+      <c r="OZ61" s="22"/>
+      <c r="PA61" s="22"/>
+      <c r="PB61" s="22"/>
+      <c r="PC61" s="22"/>
+      <c r="PD61" s="22"/>
+      <c r="PE61" s="22"/>
+      <c r="PF61" s="22"/>
+      <c r="PG61" s="22"/>
+      <c r="PH61" s="22"/>
+      <c r="PI61" s="22"/>
+      <c r="PJ61" s="22"/>
+      <c r="PK61" s="22"/>
+      <c r="PL61" s="22"/>
+      <c r="PM61" s="22"/>
+      <c r="PN61" s="22"/>
+      <c r="PO61" s="22"/>
+      <c r="PP61" s="22"/>
+      <c r="PQ61" s="22"/>
+      <c r="PR61" s="22"/>
+      <c r="PS61" s="22"/>
+      <c r="PT61" s="22"/>
+      <c r="PU61" s="22"/>
+      <c r="PV61" s="22"/>
+      <c r="PW61" s="22"/>
+      <c r="PX61" s="22"/>
+      <c r="PY61" s="22"/>
+      <c r="PZ61" s="22"/>
+      <c r="QA61" s="22"/>
+      <c r="QB61" s="22"/>
+      <c r="QC61" s="22"/>
+      <c r="QD61" s="22"/>
+      <c r="QE61" s="22"/>
+      <c r="QF61" s="22"/>
+      <c r="QG61" s="22"/>
+      <c r="QH61" s="22"/>
+      <c r="QI61" s="22"/>
+      <c r="QJ61" s="22"/>
+      <c r="QK61" s="22"/>
+      <c r="QL61" s="22"/>
+      <c r="QM61" s="22"/>
+      <c r="QN61" s="22"/>
+      <c r="QO61" s="22"/>
+      <c r="QP61" s="22"/>
+      <c r="QQ61" s="22"/>
+      <c r="QR61" s="22"/>
+      <c r="QS61" s="22"/>
+      <c r="QT61" s="22"/>
+      <c r="QU61" s="22"/>
+      <c r="QV61" s="22"/>
+      <c r="QW61" s="22"/>
+      <c r="QX61" s="22"/>
+      <c r="QY61" s="22"/>
+      <c r="QZ61" s="22"/>
+      <c r="RA61" s="22"/>
+      <c r="RB61" s="22"/>
+      <c r="RC61" s="22"/>
+      <c r="RD61" s="22"/>
+      <c r="RE61" s="22"/>
+      <c r="RF61" s="22"/>
+      <c r="RG61" s="22"/>
+      <c r="RH61" s="22"/>
+      <c r="RI61" s="22"/>
+      <c r="RJ61" s="22"/>
+      <c r="RK61" s="22"/>
+      <c r="RL61" s="22"/>
+      <c r="RM61" s="22"/>
+      <c r="RN61" s="22"/>
+      <c r="RO61" s="22"/>
+      <c r="RP61" s="22"/>
+      <c r="RQ61" s="22"/>
+      <c r="RR61" s="22"/>
+      <c r="RS61" s="22"/>
+      <c r="RT61" s="22"/>
+      <c r="RU61" s="22"/>
+      <c r="RV61" s="22"/>
+      <c r="RW61" s="22"/>
+      <c r="RX61" s="22"/>
+      <c r="RY61" s="22"/>
+      <c r="RZ61" s="22"/>
+      <c r="SA61" s="22"/>
+      <c r="SB61" s="22"/>
+      <c r="SC61" s="22"/>
+      <c r="SD61" s="22"/>
+      <c r="SE61" s="22"/>
+      <c r="SF61" s="22"/>
+      <c r="SG61" s="22"/>
+      <c r="SH61" s="22"/>
+      <c r="SI61" s="22"/>
+      <c r="SJ61" s="22"/>
+      <c r="SK61" s="22"/>
+      <c r="SL61" s="22"/>
+      <c r="SM61" s="22"/>
+      <c r="SN61" s="22"/>
+      <c r="SO61" s="22"/>
+      <c r="SP61" s="22"/>
+      <c r="SQ61" s="22"/>
+      <c r="SR61" s="22"/>
+      <c r="SS61" s="22"/>
+      <c r="ST61" s="22"/>
+      <c r="SU61" s="22"/>
+      <c r="SV61" s="22"/>
+      <c r="SW61" s="22"/>
+      <c r="SX61" s="22"/>
+      <c r="SY61" s="22"/>
+      <c r="SZ61" s="22"/>
+      <c r="TA61" s="22"/>
+      <c r="TB61" s="22"/>
+      <c r="TC61" s="22"/>
+      <c r="TD61" s="22"/>
+      <c r="TE61" s="22"/>
+      <c r="TF61" s="22"/>
+      <c r="TG61" s="22"/>
+      <c r="TH61" s="22"/>
+      <c r="TI61" s="22"/>
+      <c r="TJ61" s="22"/>
+      <c r="TK61" s="22"/>
+      <c r="TL61" s="22"/>
+      <c r="TM61" s="22"/>
+      <c r="TN61" s="22"/>
+      <c r="TO61" s="22"/>
+      <c r="TP61" s="22"/>
+      <c r="TQ61" s="22"/>
+      <c r="TR61" s="22"/>
+      <c r="TS61" s="22"/>
+      <c r="TT61" s="22"/>
+      <c r="TU61" s="22"/>
+      <c r="TV61" s="22"/>
+      <c r="TW61" s="22"/>
+      <c r="TX61" s="22"/>
+      <c r="TY61" s="22"/>
+      <c r="TZ61" s="22"/>
+      <c r="UA61" s="22"/>
+      <c r="UB61" s="22"/>
+      <c r="UC61" s="22"/>
+      <c r="UD61" s="22"/>
+      <c r="UE61" s="22"/>
+      <c r="UF61" s="22"/>
+      <c r="UG61" s="22"/>
+      <c r="UH61" s="22"/>
+      <c r="UI61" s="22"/>
+      <c r="UJ61" s="22"/>
+      <c r="UK61" s="22"/>
+      <c r="UL61" s="22"/>
+      <c r="UM61" s="22"/>
+      <c r="UN61" s="22"/>
+      <c r="UO61" s="22"/>
+      <c r="UP61" s="22"/>
+      <c r="UQ61" s="22"/>
+      <c r="UR61" s="22"/>
+      <c r="US61" s="22"/>
+      <c r="UT61" s="22"/>
+      <c r="UU61" s="22"/>
+      <c r="UV61" s="22"/>
+      <c r="UW61" s="22"/>
+      <c r="UX61" s="22"/>
+      <c r="UY61" s="22"/>
+      <c r="UZ61" s="22"/>
+      <c r="VA61" s="22"/>
+      <c r="VB61" s="22"/>
+      <c r="VC61" s="22"/>
+      <c r="VD61" s="22"/>
+      <c r="VE61" s="22"/>
+      <c r="VF61" s="22"/>
+      <c r="VG61" s="22"/>
+      <c r="VH61" s="22"/>
+      <c r="VI61" s="22"/>
+      <c r="VJ61" s="22"/>
+      <c r="VK61" s="22"/>
+      <c r="VL61" s="22"/>
+      <c r="VM61" s="22"/>
+      <c r="VN61" s="22"/>
+      <c r="VO61" s="22"/>
+      <c r="VP61" s="22"/>
+      <c r="VQ61" s="22"/>
+      <c r="VR61" s="22"/>
+      <c r="VS61" s="22"/>
+      <c r="VT61" s="22"/>
+      <c r="VU61" s="22"/>
+      <c r="VV61" s="22"/>
+      <c r="VW61" s="22"/>
+      <c r="VX61" s="22"/>
+      <c r="VY61" s="22"/>
+      <c r="VZ61" s="22"/>
+      <c r="WA61" s="22"/>
+      <c r="WB61" s="22"/>
+      <c r="WC61" s="22"/>
+      <c r="WD61" s="22"/>
+      <c r="WE61" s="22"/>
+      <c r="WF61" s="22"/>
+      <c r="WG61" s="22"/>
+      <c r="WH61" s="22"/>
+      <c r="WI61" s="22"/>
+      <c r="WJ61" s="22"/>
+      <c r="WK61" s="22"/>
+      <c r="WL61" s="22"/>
+      <c r="WM61" s="22"/>
+      <c r="WN61" s="22"/>
+      <c r="WO61" s="22"/>
+      <c r="WP61" s="22"/>
+      <c r="WQ61" s="22"/>
+      <c r="WR61" s="22"/>
+      <c r="WS61" s="22"/>
+      <c r="WT61" s="22"/>
+      <c r="WU61" s="22"/>
+      <c r="WV61" s="22"/>
+      <c r="WW61" s="22"/>
+      <c r="WX61" s="22"/>
+      <c r="WY61" s="22"/>
+      <c r="WZ61" s="22"/>
+      <c r="XA61" s="22"/>
+      <c r="XB61" s="22"/>
+      <c r="XC61" s="22"/>
+      <c r="XD61" s="22"/>
+      <c r="XE61" s="22"/>
+      <c r="XF61" s="22"/>
+      <c r="XG61" s="22"/>
+      <c r="XH61" s="22"/>
+      <c r="XI61" s="22"/>
+      <c r="XJ61" s="22"/>
+      <c r="XK61" s="22"/>
+      <c r="XL61" s="22"/>
+      <c r="XM61" s="22"/>
+      <c r="XN61" s="22"/>
+      <c r="XO61" s="22"/>
+      <c r="XP61" s="22"/>
+      <c r="XQ61" s="22"/>
+      <c r="XR61" s="22"/>
+      <c r="XS61" s="22"/>
+      <c r="XT61" s="22"/>
+      <c r="XU61" s="22"/>
+      <c r="XV61" s="22"/>
+      <c r="XW61" s="22"/>
+      <c r="XX61" s="22"/>
+      <c r="XY61" s="22"/>
+      <c r="XZ61" s="22"/>
+      <c r="YA61" s="22"/>
+      <c r="YB61" s="22"/>
+      <c r="YC61" s="22"/>
+      <c r="YD61" s="22"/>
+      <c r="YE61" s="22"/>
+      <c r="YF61" s="22"/>
+      <c r="YG61" s="22"/>
+      <c r="YH61" s="22"/>
+      <c r="YI61" s="22"/>
+      <c r="YJ61" s="22"/>
+      <c r="YK61" s="22"/>
+      <c r="YL61" s="22"/>
+      <c r="YM61" s="22"/>
+      <c r="YN61" s="22"/>
+      <c r="YO61" s="22"/>
+      <c r="YP61" s="22"/>
+      <c r="YQ61" s="22"/>
+      <c r="YR61" s="22"/>
+      <c r="YS61" s="22"/>
+      <c r="YT61" s="22"/>
+      <c r="YU61" s="22"/>
+      <c r="YV61" s="22"/>
+      <c r="YW61" s="22"/>
+      <c r="YX61" s="22"/>
+      <c r="YY61" s="22"/>
+      <c r="YZ61" s="22"/>
+      <c r="ZA61" s="22"/>
+      <c r="ZB61" s="22"/>
+      <c r="ZC61" s="22"/>
+      <c r="ZD61" s="22"/>
+      <c r="ZE61" s="22"/>
+      <c r="ZF61" s="22"/>
+      <c r="ZG61" s="22"/>
+      <c r="ZH61" s="22"/>
+      <c r="ZI61" s="22"/>
+      <c r="ZJ61" s="22"/>
+      <c r="ZK61" s="22"/>
+      <c r="ZL61" s="22"/>
+      <c r="ZM61" s="22"/>
+      <c r="ZN61" s="22"/>
+      <c r="ZO61" s="22"/>
+      <c r="ZP61" s="22"/>
+      <c r="ZQ61" s="22"/>
+      <c r="ZR61" s="22"/>
+      <c r="ZS61" s="22"/>
+      <c r="ZT61" s="22"/>
+      <c r="ZU61" s="22"/>
+      <c r="ZV61" s="22"/>
+      <c r="ZW61" s="22"/>
+      <c r="ZX61" s="22"/>
+      <c r="ZY61" s="22"/>
+      <c r="ZZ61" s="22"/>
+      <c r="AAA61" s="22"/>
+      <c r="AAB61" s="22"/>
+      <c r="AAC61" s="22"/>
+      <c r="AAD61" s="22"/>
+      <c r="AAE61" s="22"/>
+      <c r="AAF61" s="22"/>
+      <c r="AAG61" s="22"/>
+      <c r="AAH61" s="22"/>
+      <c r="AAI61" s="22"/>
+      <c r="AAJ61" s="22"/>
+      <c r="AAK61" s="22"/>
+      <c r="AAL61" s="22"/>
+      <c r="AAM61" s="22"/>
+      <c r="AAN61" s="22"/>
+      <c r="AAO61" s="22"/>
+      <c r="AAP61" s="22"/>
+      <c r="AAQ61" s="22"/>
+      <c r="AAR61" s="22"/>
+      <c r="AAS61" s="22"/>
+      <c r="AAT61" s="22"/>
+      <c r="AAU61" s="22"/>
+      <c r="AAV61" s="22"/>
+      <c r="AAW61" s="22"/>
+      <c r="AAX61" s="22"/>
+      <c r="AAY61" s="22"/>
+      <c r="AAZ61" s="22"/>
+      <c r="ABA61" s="22"/>
+      <c r="ABB61" s="22"/>
+      <c r="ABC61" s="22"/>
+      <c r="ABD61" s="22"/>
+      <c r="ABE61" s="22"/>
+      <c r="ABF61" s="22"/>
+      <c r="ABG61" s="22"/>
+      <c r="ABH61" s="22"/>
+      <c r="ABI61" s="22"/>
+      <c r="ABJ61" s="22"/>
+      <c r="ABK61" s="22"/>
+      <c r="ABL61" s="22"/>
+      <c r="ABM61" s="22"/>
+      <c r="ABN61" s="22"/>
+      <c r="ABO61" s="22"/>
+      <c r="ABP61" s="22"/>
+      <c r="ABQ61" s="22"/>
+      <c r="ABR61" s="22"/>
+      <c r="ABS61" s="22"/>
+      <c r="ABT61" s="22"/>
+      <c r="ABU61" s="22"/>
+      <c r="ABV61" s="22"/>
+      <c r="ABW61" s="22"/>
+      <c r="ABX61" s="22"/>
+      <c r="ABY61" s="22"/>
+      <c r="ABZ61" s="22"/>
+      <c r="ACA61" s="22"/>
+      <c r="ACB61" s="22"/>
+      <c r="ACC61" s="22"/>
+      <c r="ACD61" s="22"/>
+      <c r="ACE61" s="22"/>
+      <c r="ACF61" s="22"/>
+      <c r="ACG61" s="22"/>
+      <c r="ACH61" s="22"/>
+      <c r="ACI61" s="22"/>
+      <c r="ACJ61" s="22"/>
+      <c r="ACK61" s="22"/>
+      <c r="ACL61" s="22"/>
+      <c r="ACM61" s="22"/>
+      <c r="ACN61" s="22"/>
+      <c r="ACO61" s="22"/>
+      <c r="ACP61" s="22"/>
+      <c r="ACQ61" s="22"/>
+      <c r="ACR61" s="22"/>
+      <c r="ACS61" s="22"/>
+      <c r="ACT61" s="22"/>
+      <c r="ACU61" s="22"/>
+      <c r="ACV61" s="22"/>
+      <c r="ACW61" s="22"/>
+      <c r="ACX61" s="22"/>
+      <c r="ACY61" s="22"/>
+      <c r="ACZ61" s="22"/>
+      <c r="ADA61" s="22"/>
+      <c r="ADB61" s="22"/>
+      <c r="ADC61" s="22"/>
+      <c r="ADD61" s="22"/>
+      <c r="ADE61" s="22"/>
+      <c r="ADF61" s="22"/>
+      <c r="ADG61" s="22"/>
+      <c r="ADH61" s="22"/>
+      <c r="ADI61" s="22"/>
+      <c r="ADJ61" s="22"/>
+      <c r="ADK61" s="22"/>
+      <c r="ADL61" s="22"/>
+      <c r="ADM61" s="22"/>
+      <c r="ADN61" s="22"/>
+      <c r="ADO61" s="22"/>
+      <c r="ADP61" s="22"/>
+      <c r="ADQ61" s="22"/>
+      <c r="ADR61" s="22"/>
+      <c r="ADS61" s="22"/>
+      <c r="ADT61" s="22"/>
+      <c r="ADU61" s="22"/>
+      <c r="ADV61" s="22"/>
+      <c r="ADW61" s="22"/>
+      <c r="ADX61" s="22"/>
+      <c r="ADY61" s="22"/>
+      <c r="ADZ61" s="22"/>
+      <c r="AEA61" s="22"/>
+      <c r="AEB61" s="22"/>
+      <c r="AEC61" s="22"/>
+      <c r="AED61" s="22"/>
+      <c r="AEE61" s="22"/>
+      <c r="AEF61" s="22"/>
+      <c r="AEG61" s="22"/>
+      <c r="AEH61" s="22"/>
+      <c r="AEI61" s="22"/>
+      <c r="AEJ61" s="22"/>
+      <c r="AEK61" s="22"/>
+      <c r="AEL61" s="22"/>
+      <c r="AEM61" s="22"/>
+      <c r="AEN61" s="22"/>
+      <c r="AEO61" s="22"/>
+      <c r="AEP61" s="22"/>
+      <c r="AEQ61" s="22"/>
+      <c r="AER61" s="22"/>
+      <c r="AES61" s="22"/>
+      <c r="AET61" s="22"/>
+      <c r="AEU61" s="22"/>
+      <c r="AEV61" s="22"/>
+      <c r="AEW61" s="22"/>
+      <c r="AEX61" s="22"/>
+      <c r="AEY61" s="22"/>
+      <c r="AEZ61" s="22"/>
+      <c r="AFA61" s="22"/>
+      <c r="AFB61" s="22"/>
+      <c r="AFC61" s="22"/>
+      <c r="AFD61" s="22"/>
+      <c r="AFE61" s="22"/>
+      <c r="AFF61" s="22"/>
+      <c r="AFG61" s="22"/>
+      <c r="AFH61" s="22"/>
+      <c r="AFI61" s="22"/>
+      <c r="AFJ61" s="22"/>
+      <c r="AFK61" s="22"/>
+      <c r="AFL61" s="22"/>
+      <c r="AFM61" s="22"/>
+      <c r="AFN61" s="22"/>
+      <c r="AFO61" s="22"/>
+      <c r="AFP61" s="22"/>
+      <c r="AFQ61" s="22"/>
+      <c r="AFR61" s="22"/>
+      <c r="AFS61" s="22"/>
+      <c r="AFT61" s="22"/>
+      <c r="AFU61" s="22"/>
+      <c r="AFV61" s="22"/>
+      <c r="AFW61" s="22"/>
+      <c r="AFX61" s="22"/>
+      <c r="AFY61" s="22"/>
+      <c r="AFZ61" s="22"/>
+      <c r="AGA61" s="22"/>
+      <c r="AGB61" s="22"/>
+      <c r="AGC61" s="22"/>
+      <c r="AGD61" s="22"/>
+      <c r="AGE61" s="22"/>
+      <c r="AGF61" s="22"/>
+      <c r="AGG61" s="22"/>
+      <c r="AGH61" s="22"/>
+      <c r="AGI61" s="22"/>
+      <c r="AGJ61" s="22"/>
+      <c r="AGK61" s="22"/>
+      <c r="AGL61" s="22"/>
+      <c r="AGM61" s="22"/>
+      <c r="AGN61" s="22"/>
+      <c r="AGO61" s="22"/>
+      <c r="AGP61" s="22"/>
+      <c r="AGQ61" s="22"/>
+      <c r="AGR61" s="22"/>
+      <c r="AGS61" s="22"/>
+      <c r="AGT61" s="22"/>
+      <c r="AGU61" s="22"/>
+      <c r="AGV61" s="22"/>
+      <c r="AGW61" s="22"/>
+      <c r="AGX61" s="22"/>
+      <c r="AGY61" s="22"/>
+      <c r="AGZ61" s="22"/>
+      <c r="AHA61" s="22"/>
+      <c r="AHB61" s="22"/>
+      <c r="AHC61" s="22"/>
+      <c r="AHD61" s="22"/>
+      <c r="AHE61" s="22"/>
+      <c r="AHF61" s="22"/>
+      <c r="AHG61" s="22"/>
+      <c r="AHH61" s="22"/>
+      <c r="AHI61" s="22"/>
+      <c r="AHJ61" s="22"/>
+      <c r="AHK61" s="22"/>
+      <c r="AHL61" s="22"/>
+      <c r="AHM61" s="22"/>
+      <c r="AHN61" s="22"/>
+      <c r="AHO61" s="22"/>
+      <c r="AHP61" s="22"/>
+      <c r="AHQ61" s="22"/>
+      <c r="AHR61" s="22"/>
+      <c r="AHS61" s="22"/>
+      <c r="AHT61" s="22"/>
+      <c r="AHU61" s="22"/>
+      <c r="AHV61" s="22"/>
+      <c r="AHW61" s="22"/>
+      <c r="AHX61" s="22"/>
+      <c r="AHY61" s="22"/>
+      <c r="AHZ61" s="22"/>
+      <c r="AIA61" s="22"/>
+      <c r="AIB61" s="22"/>
+      <c r="AIC61" s="22"/>
+      <c r="AID61" s="22"/>
+      <c r="AIE61" s="22"/>
+      <c r="AIF61" s="22"/>
+      <c r="AIG61" s="22"/>
+      <c r="AIH61" s="22"/>
+      <c r="AII61" s="22"/>
+      <c r="AIJ61" s="22"/>
+      <c r="AIK61" s="22"/>
+      <c r="AIL61" s="22"/>
+      <c r="AIM61" s="22"/>
+      <c r="AIN61" s="22"/>
+      <c r="AIO61" s="22"/>
+      <c r="AIP61" s="22"/>
+      <c r="AIQ61" s="22"/>
+      <c r="AIR61" s="22"/>
+      <c r="AIS61" s="22"/>
+      <c r="AIT61" s="22"/>
+      <c r="AIU61" s="22"/>
+      <c r="AIV61" s="22"/>
+      <c r="AIW61" s="22"/>
+      <c r="AIX61" s="22"/>
+      <c r="AIY61" s="22"/>
+      <c r="AIZ61" s="22"/>
+      <c r="AJA61" s="22"/>
+      <c r="AJB61" s="22"/>
+      <c r="AJC61" s="22"/>
+      <c r="AJD61" s="22"/>
+      <c r="AJE61" s="22"/>
+      <c r="AJF61" s="22"/>
+      <c r="AJG61" s="22"/>
+      <c r="AJH61" s="22"/>
+      <c r="AJI61" s="22"/>
+      <c r="AJJ61" s="22"/>
+      <c r="AJK61" s="22"/>
+      <c r="AJL61" s="22"/>
+      <c r="AJM61" s="22"/>
+      <c r="AJN61" s="22"/>
+      <c r="AJO61" s="22"/>
+      <c r="AJP61" s="22"/>
+      <c r="AJQ61" s="22"/>
+      <c r="AJR61" s="22"/>
+      <c r="AJS61" s="22"/>
+      <c r="AJT61" s="22"/>
+      <c r="AJU61" s="22"/>
+      <c r="AJV61" s="22"/>
+      <c r="AJW61" s="22"/>
+      <c r="AJX61" s="22"/>
+      <c r="AJY61" s="22"/>
+      <c r="AJZ61" s="22"/>
+      <c r="AKA61" s="22"/>
+      <c r="AKB61" s="22"/>
+      <c r="AKC61" s="22"/>
+      <c r="AKD61" s="22"/>
+      <c r="AKE61" s="22"/>
+      <c r="AKF61" s="22"/>
+      <c r="AKG61" s="22"/>
+      <c r="AKH61" s="22"/>
+      <c r="AKI61" s="22"/>
+      <c r="AKJ61" s="22"/>
+      <c r="AKK61" s="22"/>
+      <c r="AKL61" s="22"/>
+      <c r="AKM61" s="22"/>
+      <c r="AKN61" s="22"/>
+      <c r="AKO61" s="22"/>
+      <c r="AKP61" s="22"/>
+      <c r="AKQ61" s="22"/>
+      <c r="AKR61" s="22"/>
+      <c r="AKS61" s="22"/>
+      <c r="AKT61" s="22"/>
+      <c r="AKU61" s="22"/>
+      <c r="AKV61" s="22"/>
+      <c r="AKW61" s="22"/>
+      <c r="AKX61" s="22"/>
+      <c r="AKY61" s="22"/>
+      <c r="AKZ61" s="22"/>
+      <c r="ALA61" s="22"/>
+      <c r="ALB61" s="22"/>
+      <c r="ALC61" s="22"/>
+      <c r="ALD61" s="22"/>
+      <c r="ALE61" s="22"/>
+      <c r="ALF61" s="22"/>
+      <c r="ALG61" s="22"/>
+      <c r="ALH61" s="22"/>
+      <c r="ALI61" s="22"/>
+      <c r="ALJ61" s="22"/>
+      <c r="ALK61" s="22"/>
+      <c r="ALL61" s="22"/>
+      <c r="ALM61" s="22"/>
+      <c r="ALN61" s="22"/>
+      <c r="ALO61" s="22"/>
+      <c r="ALP61" s="22"/>
+      <c r="ALQ61" s="22"/>
+      <c r="ALR61" s="22"/>
+      <c r="ALS61" s="22"/>
+      <c r="ALT61" s="22"/>
+      <c r="ALU61" s="22"/>
+      <c r="ALV61" s="22"/>
+      <c r="ALW61" s="22"/>
+      <c r="ALX61" s="22"/>
+      <c r="ALY61" s="22"/>
+      <c r="ALZ61" s="22"/>
+      <c r="AMA61" s="22"/>
+      <c r="AMB61" s="22"/>
+      <c r="AMC61" s="22"/>
+      <c r="AMD61" s="22"/>
+      <c r="AME61" s="22"/>
+      <c r="AMF61" s="22"/>
+      <c r="AMG61" s="22"/>
+      <c r="AMH61" s="22"/>
+      <c r="AMI61" s="22"/>
+      <c r="AMJ61" s="22"/>
+      <c r="AMK61" s="22"/>
+      <c r="AML61" s="22"/>
+      <c r="AMM61" s="22"/>
+      <c r="AMN61" s="22"/>
+      <c r="AMO61" s="22"/>
+      <c r="AMP61" s="22"/>
+      <c r="AMQ61" s="22"/>
+      <c r="AMR61" s="22"/>
+      <c r="AMS61" s="22"/>
+      <c r="AMT61" s="22"/>
+      <c r="AMU61" s="22"/>
+      <c r="AMV61" s="22"/>
+      <c r="AMW61" s="22"/>
+      <c r="AMX61" s="22"/>
+      <c r="AMY61" s="22"/>
+      <c r="AMZ61" s="22"/>
+      <c r="ANA61" s="22"/>
+      <c r="ANB61" s="22"/>
+      <c r="ANC61" s="22"/>
+      <c r="AND61" s="22"/>
+      <c r="ANE61" s="22"/>
+      <c r="ANF61" s="22"/>
+      <c r="ANG61" s="22"/>
+      <c r="ANH61" s="22"/>
+      <c r="ANI61" s="22"/>
+      <c r="ANJ61" s="22"/>
+      <c r="ANK61" s="22"/>
+      <c r="ANL61" s="22"/>
+      <c r="ANM61" s="22"/>
+      <c r="ANN61" s="22"/>
+      <c r="ANO61" s="22"/>
+      <c r="ANP61" s="22"/>
+      <c r="ANQ61" s="22"/>
+      <c r="ANR61" s="22"/>
+      <c r="ANS61" s="22"/>
+      <c r="ANT61" s="22"/>
+      <c r="ANU61" s="22"/>
+      <c r="ANV61" s="22"/>
+      <c r="ANW61" s="22"/>
+      <c r="ANX61" s="22"/>
+      <c r="ANY61" s="22"/>
+      <c r="ANZ61" s="22"/>
+      <c r="AOA61" s="22"/>
+      <c r="AOB61" s="22"/>
+      <c r="AOC61" s="22"/>
+      <c r="AOD61" s="22"/>
+      <c r="AOE61" s="22"/>
+      <c r="AOF61" s="22"/>
+      <c r="AOG61" s="22"/>
+      <c r="AOH61" s="22"/>
+      <c r="AOI61" s="22"/>
+      <c r="AOJ61" s="22"/>
+      <c r="AOK61" s="22"/>
+      <c r="AOL61" s="22"/>
+      <c r="AOM61" s="22"/>
+      <c r="AON61" s="22"/>
+      <c r="AOO61" s="22"/>
+      <c r="AOP61" s="22"/>
+      <c r="AOQ61" s="22"/>
+      <c r="AOR61" s="22"/>
+      <c r="AOS61" s="22"/>
+      <c r="AOT61" s="22"/>
+      <c r="AOU61" s="22"/>
+      <c r="AOV61" s="22"/>
+      <c r="AOW61" s="22"/>
+      <c r="AOX61" s="22"/>
+      <c r="AOY61" s="22"/>
+      <c r="AOZ61" s="22"/>
+      <c r="APA61" s="22"/>
+      <c r="APB61" s="22"/>
+      <c r="APC61" s="22"/>
+      <c r="APD61" s="22"/>
+      <c r="APE61" s="22"/>
+      <c r="APF61" s="22"/>
+      <c r="APG61" s="22"/>
+      <c r="APH61" s="22"/>
+      <c r="API61" s="22"/>
+      <c r="APJ61" s="22"/>
+      <c r="APK61" s="22"/>
+      <c r="APL61" s="22"/>
+      <c r="APM61" s="22"/>
+      <c r="APN61" s="22"/>
+      <c r="APO61" s="22"/>
+      <c r="APP61" s="22"/>
+      <c r="APQ61" s="22"/>
+      <c r="APR61" s="22"/>
+      <c r="APS61" s="22"/>
+      <c r="APT61" s="22"/>
+      <c r="APU61" s="22"/>
+      <c r="APV61" s="22"/>
+      <c r="APW61" s="22"/>
+      <c r="APX61" s="22"/>
+      <c r="APY61" s="22"/>
+      <c r="APZ61" s="22"/>
+      <c r="AQA61" s="22"/>
+      <c r="AQB61" s="22"/>
+      <c r="AQC61" s="22"/>
+      <c r="AQD61" s="22"/>
+      <c r="AQE61" s="22"/>
+      <c r="AQF61" s="22"/>
+      <c r="AQG61" s="22"/>
+      <c r="AQH61" s="22"/>
+      <c r="AQI61" s="22"/>
+      <c r="AQJ61" s="22"/>
+      <c r="AQK61" s="22"/>
+      <c r="AQL61" s="22"/>
+      <c r="AQM61" s="22"/>
+      <c r="AQN61" s="22"/>
+      <c r="AQO61" s="22"/>
+      <c r="AQP61" s="22"/>
+      <c r="AQQ61" s="22"/>
+      <c r="AQR61" s="22"/>
+      <c r="AQS61" s="22"/>
+      <c r="AQT61" s="22"/>
+      <c r="AQU61" s="22"/>
+      <c r="AQV61" s="22"/>
+      <c r="AQW61" s="22"/>
+      <c r="AQX61" s="22"/>
+      <c r="AQY61" s="22"/>
+      <c r="AQZ61" s="22"/>
+      <c r="ARA61" s="22"/>
+      <c r="ARB61" s="22"/>
+      <c r="ARC61" s="22"/>
+      <c r="ARD61" s="22"/>
+      <c r="ARE61" s="22"/>
+      <c r="ARF61" s="22"/>
+      <c r="ARG61" s="22"/>
+      <c r="ARH61" s="22"/>
+      <c r="ARI61" s="22"/>
+      <c r="ARJ61" s="22"/>
+      <c r="ARK61" s="22"/>
+      <c r="ARL61" s="22"/>
+      <c r="ARM61" s="22"/>
+      <c r="ARN61" s="22"/>
+      <c r="ARO61" s="22"/>
+      <c r="ARP61" s="22"/>
+      <c r="ARQ61" s="22"/>
+      <c r="ARR61" s="22"/>
+      <c r="ARS61" s="22"/>
+      <c r="ART61" s="22"/>
+      <c r="ARU61" s="22"/>
+      <c r="ARV61" s="22"/>
+      <c r="ARW61" s="22"/>
+      <c r="ARX61" s="22"/>
+      <c r="ARY61" s="22"/>
+      <c r="ARZ61" s="22"/>
+      <c r="ASA61" s="22"/>
+      <c r="ASB61" s="22"/>
+      <c r="ASC61" s="22"/>
+      <c r="ASD61" s="22"/>
+      <c r="ASE61" s="22"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B62" s="3">
         <v>2020.0</v>
@@ -24986,46 +26164,46 @@
         <v>2020.0</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="H62" s="13">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>428</v>
+        <v>192</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="K62" s="14">
-        <v>32.0</v>
+        <v>85.0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>183</v>
+      <c r="M62" s="13">
+        <v>7.71E7</v>
       </c>
       <c r="N62" s="13">
-        <v>108000.0</v>
+        <v>86700.0</v>
       </c>
       <c r="O62" s="3">
-        <v>2.05</v>
+        <v>40.0</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="Q62" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R62" s="15" t="s">
-        <v>407</v>
+      <c r="R62" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>188</v>
@@ -25039,10 +26217,10 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>430</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63">
@@ -25059,25 +26237,25 @@
         <v>2020.0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="H63" s="13">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>203</v>
+        <v>432</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K63" s="14">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>184</v>
@@ -25086,25 +26264,25 @@
         <v>183</v>
       </c>
       <c r="N63" s="13">
-        <v>5.812E7</v>
+        <v>108000.0</v>
       </c>
       <c r="O63" s="3">
-        <v>86.0</v>
+        <v>2.05</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="Q63" s="15" t="s">
         <v>230</v>
       </c>
       <c r="R63" s="15" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>188</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>188</v>
@@ -25123,7 +26301,7 @@
         <v>435</v>
       </c>
       <c r="B64" s="3">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="C64" s="3">
         <v>2020.0</v>
@@ -25132,25 +26310,25 @@
         <v>2020.0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="H64" s="13">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>436</v>
+        <v>203</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K64" s="14">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>184</v>
@@ -25159,22 +26337,22 @@
         <v>183</v>
       </c>
       <c r="N64" s="13">
-        <v>907800.0</v>
+        <v>5.812E7</v>
       </c>
       <c r="O64" s="3">
-        <v>582.0</v>
+        <v>86.0</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>245</v>
       </c>
       <c r="Q64" s="15" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="R64" s="15" t="s">
-        <v>223</v>
+        <v>436</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>188</v>
@@ -25196,7 +26374,7 @@
         <v>439</v>
       </c>
       <c r="B65" s="3">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C65" s="3">
         <v>2020.0</v>
@@ -25208,49 +26386,49 @@
         <v>68</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H65" s="13">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>183</v>
+        <v>104</v>
+      </c>
+      <c r="K65" s="14">
+        <v>38.0</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M65" s="13">
-        <v>4480000.0</v>
-      </c>
-      <c r="N65" s="13" t="s">
+      <c r="M65" s="13" t="s">
         <v>183</v>
       </c>
+      <c r="N65" s="13">
+        <v>907800.0</v>
+      </c>
       <c r="O65" s="3">
-        <v>3.63</v>
+        <v>588.0</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>245</v>
       </c>
       <c r="Q65" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="R65" s="15" t="s">
-        <v>440</v>
+        <v>223</v>
       </c>
       <c r="S65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T65" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="T65" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="U65" s="3" t="s">
         <v>188</v>
@@ -25278,52 +26456,52 @@
         <v>2020.0</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="H66" s="13">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K66" s="14">
-        <v>48.0</v>
+        <v>98</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M66" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="M66" s="13">
+        <v>4480000.0</v>
+      </c>
+      <c r="N66" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="N66" s="13">
-        <v>12900.0</v>
-      </c>
       <c r="O66" s="3">
-        <v>336.0</v>
+        <v>3.63</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="Q66" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R66" s="16" t="s">
-        <v>183</v>
+      <c r="R66" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>188</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>188</v>
@@ -25331,72 +26509,72 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="3">
         <v>2021.0</v>
       </c>
       <c r="C67" s="3">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D67" s="3">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="H67" s="13">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="K67" s="14">
-        <v>254.0</v>
+        <v>48.0</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M67" s="13">
-        <v>3.7E7</v>
-      </c>
-      <c r="N67" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="M67" s="13" t="s">
         <v>183</v>
       </c>
+      <c r="N67" s="13">
+        <v>12900.0</v>
+      </c>
       <c r="O67" s="3">
-        <v>2.33</v>
+        <v>48.0</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="Q67" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R67" s="15" t="s">
-        <v>276</v>
+      <c r="R67" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>188</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="U67" s="3" t="s">
         <v>188</v>
@@ -25424,7 +26602,7 @@
         <v>2021.0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>227</v>
@@ -25433,40 +26611,40 @@
         <v>227</v>
       </c>
       <c r="H68" s="13">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>451</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="K68" s="14">
-        <v>88.0</v>
+        <v>254.0</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="M68" s="13">
+        <v>3.7E7</v>
+      </c>
+      <c r="N68" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="N68" s="13">
-        <v>91600.0</v>
-      </c>
-      <c r="O68" s="13" t="s">
-        <v>183</v>
+      <c r="O68" s="3">
+        <v>2.33</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="Q68" s="15" t="s">
         <v>230</v>
       </c>
       <c r="R68" s="15" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>184</v>
@@ -25480,12 +26658,12 @@
         <v>452</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>229</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B69" s="3">
         <v>2021.0</v>
@@ -25509,7 +26687,7 @@
         <v>5.0</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>234</v>
@@ -25550,15 +26728,15 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" s="3">
         <v>2022.0</v>
@@ -25623,18 +26801,18 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B71" s="3">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="C71" s="3">
         <v>2021.0</v>
@@ -25643,49 +26821,49 @@
         <v>2021.0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="H71" s="13">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>461</v>
+        <v>344</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="K71" s="14">
-        <v>86.0</v>
+        <v>78.0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M71" s="13">
-        <v>1.78E7</v>
+        <v>422</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="N71" s="13">
-        <v>555000.0</v>
-      </c>
-      <c r="O71" s="3">
-        <v>38.5</v>
+        <v>532000.0</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="Q71" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R71" s="16" t="s">
-        <v>183</v>
+      <c r="R71" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>184</v>
@@ -25693,12 +26871,13 @@
       <c r="U71" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>463</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72">
@@ -25715,46 +26894,46 @@
         <v>2021.0</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H72" s="13">
-        <v>6.0</v>
+      <c r="H72" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="K72" s="14">
-        <v>78.0</v>
+        <v>160.0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="M72" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="M72" s="13">
+        <v>1.784E8</v>
+      </c>
+      <c r="N72" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="N72" s="13">
-        <v>532000.0</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>183</v>
+      <c r="O72" s="3">
+        <v>2784.0</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="Q72" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R72" s="15" t="s">
-        <v>465</v>
+      <c r="R72" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>184</v>
@@ -25763,15 +26942,15 @@
         <v>184</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y72" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="73">
@@ -25791,68 +26970,68 @@
         <v>27</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H73" s="14" t="s">
-        <v>183</v>
+      <c r="H73" s="13">
+        <v>5.0</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>192</v>
+        <v>468</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="K73" s="14">
-        <v>160.0</v>
+        <v>89.0</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>184</v>
       </c>
       <c r="M73" s="13">
-        <v>1.784E8</v>
-      </c>
-      <c r="N73" s="13" t="s">
-        <v>183</v>
+        <v>2.52E8</v>
+      </c>
+      <c r="N73" s="13">
+        <v>6860000.0</v>
       </c>
       <c r="O73" s="3">
-        <v>2784.0</v>
+        <v>973.0</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q73" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R73" s="16" t="s">
-        <v>183</v>
+      <c r="R73" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>184</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B74" s="3">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="C74" s="3">
         <v>2021.0</v>
@@ -25861,52 +27040,52 @@
         <v>2021.0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="H74" s="13">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>471</v>
+        <v>217</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>472</v>
+        <v>104</v>
       </c>
       <c r="K74" s="14">
-        <v>89.0</v>
+        <v>84.0</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M74" s="13">
-        <v>2.52E8</v>
+      <c r="M74" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="N74" s="13">
-        <v>6860000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="O74" s="3">
-        <v>973.0</v>
+        <v>69.5</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="Q74" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R74" s="15" t="s">
-        <v>153</v>
+      <c r="R74" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>188</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="U74" s="3" t="s">
         <v>188</v>
@@ -25925,13 +27104,13 @@
         <v>475</v>
       </c>
       <c r="B75" s="3">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C75" s="3">
         <v>2021.0</v>
       </c>
       <c r="D75" s="3">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>77</v>
@@ -25943,62 +27122,62 @@
         <v>227</v>
       </c>
       <c r="H75" s="13">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>217</v>
+        <v>476</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="K75" s="14">
-        <v>84.0</v>
+        <v>48.0</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M75" s="13" t="s">
-        <v>183</v>
+      <c r="M75" s="13">
+        <v>1.2E8</v>
       </c>
       <c r="N75" s="13">
-        <v>4500000.0</v>
+        <v>466000.0</v>
       </c>
       <c r="O75" s="3">
-        <v>2.67</v>
+        <v>541.0</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="Q75" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R75" s="16" t="s">
-        <v>183</v>
+      <c r="R75" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B76" s="3">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="C76" s="3">
         <v>2021.0</v>
@@ -26010,34 +27189,34 @@
         <v>79</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>227</v>
       </c>
       <c r="H76" s="13">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
       <c r="K76" s="14">
-        <v>48.0</v>
+        <v>86.0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="M76" s="13">
-        <v>1.2E8</v>
+        <v>6.648E7</v>
       </c>
       <c r="N76" s="13">
-        <v>466000.0</v>
+        <v>738000.0</v>
       </c>
       <c r="O76" s="3">
-        <v>541.0</v>
+        <v>28.5</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>245</v>
@@ -26045,30 +27224,29 @@
       <c r="Q76" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="R76" s="15" t="s">
-        <v>357</v>
+      <c r="R76" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>184</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="V76" s="3"/>
+        <v>188</v>
+      </c>
       <c r="W76" s="3"/>
       <c r="X76" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y76" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B77" s="3">
         <v>2020.0</v>
@@ -26133,118 +27311,1268 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B78" s="3">
+      <c r="A78" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B78" s="18">
+        <v>2023.0</v>
+      </c>
+      <c r="C78" s="18">
+        <v>2021.0</v>
+      </c>
+      <c r="D78" s="18">
         <v>2022.0</v>
       </c>
-      <c r="C78" s="3">
-        <v>2004.0</v>
-      </c>
-      <c r="D78" s="3">
-        <v>2022.0</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H78" s="13">
-        <v>115.0</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K78" s="14">
-        <v>47.0</v>
-      </c>
-      <c r="L78" s="3" t="s">
+      <c r="E78" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H78" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K78" s="19">
+        <v>23.0</v>
+      </c>
+      <c r="L78" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="M78" s="13" t="s">
+      <c r="M78" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="N78" s="13">
-        <v>2.77E7</v>
-      </c>
-      <c r="O78" s="3">
-        <v>552.0</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q78" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="R78" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="S78" s="3" t="s">
+      <c r="N78" s="18">
+        <v>1.856E7</v>
+      </c>
+      <c r="O78" s="20">
+        <v>742.0</v>
+      </c>
+      <c r="P78" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q78" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="R78" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="S78" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="T78" s="3" t="s">
+      <c r="T78" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="U78" s="3" t="s">
+      <c r="U78" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3" t="s">
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="Y78" s="3" t="s">
+      <c r="Y78" s="17" t="s">
         <v>488</v>
       </c>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="22"/>
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="22"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="22"/>
+      <c r="AI78" s="22"/>
+      <c r="AJ78" s="22"/>
+      <c r="AK78" s="22"/>
+      <c r="AL78" s="22"/>
+      <c r="AM78" s="22"/>
+      <c r="AN78" s="22"/>
+      <c r="AO78" s="22"/>
+      <c r="AP78" s="22"/>
+      <c r="AQ78" s="22"/>
+      <c r="AR78" s="22"/>
+      <c r="AS78" s="22"/>
+      <c r="AT78" s="22"/>
+      <c r="AU78" s="22"/>
+      <c r="AV78" s="22"/>
+      <c r="AW78" s="22"/>
+      <c r="AX78" s="22"/>
+      <c r="AY78" s="22"/>
+      <c r="AZ78" s="22"/>
+      <c r="BA78" s="22"/>
+      <c r="BB78" s="22"/>
+      <c r="BC78" s="22"/>
+      <c r="BD78" s="22"/>
+      <c r="BE78" s="22"/>
+      <c r="BF78" s="22"/>
+      <c r="BG78" s="22"/>
+      <c r="BH78" s="22"/>
+      <c r="BI78" s="22"/>
+      <c r="BJ78" s="22"/>
+      <c r="BK78" s="22"/>
+      <c r="BL78" s="22"/>
+      <c r="BM78" s="22"/>
+      <c r="BN78" s="22"/>
+      <c r="BO78" s="22"/>
+      <c r="BP78" s="22"/>
+      <c r="BQ78" s="22"/>
+      <c r="BR78" s="22"/>
+      <c r="BS78" s="22"/>
+      <c r="BT78" s="22"/>
+      <c r="BU78" s="22"/>
+      <c r="BV78" s="22"/>
+      <c r="BW78" s="22"/>
+      <c r="BX78" s="22"/>
+      <c r="BY78" s="22"/>
+      <c r="BZ78" s="22"/>
+      <c r="CA78" s="22"/>
+      <c r="CB78" s="22"/>
+      <c r="CC78" s="22"/>
+      <c r="CD78" s="22"/>
+      <c r="CE78" s="22"/>
+      <c r="CF78" s="22"/>
+      <c r="CG78" s="22"/>
+      <c r="CH78" s="22"/>
+      <c r="CI78" s="22"/>
+      <c r="CJ78" s="22"/>
+      <c r="CK78" s="22"/>
+      <c r="CL78" s="22"/>
+      <c r="CM78" s="22"/>
+      <c r="CN78" s="22"/>
+      <c r="CO78" s="22"/>
+      <c r="CP78" s="22"/>
+      <c r="CQ78" s="22"/>
+      <c r="CR78" s="22"/>
+      <c r="CS78" s="22"/>
+      <c r="CT78" s="22"/>
+      <c r="CU78" s="22"/>
+      <c r="CV78" s="22"/>
+      <c r="CW78" s="22"/>
+      <c r="CX78" s="22"/>
+      <c r="CY78" s="22"/>
+      <c r="CZ78" s="22"/>
+      <c r="DA78" s="22"/>
+      <c r="DB78" s="22"/>
+      <c r="DC78" s="22"/>
+      <c r="DD78" s="22"/>
+      <c r="DE78" s="22"/>
+      <c r="DF78" s="22"/>
+      <c r="DG78" s="22"/>
+      <c r="DH78" s="22"/>
+      <c r="DI78" s="22"/>
+      <c r="DJ78" s="22"/>
+      <c r="DK78" s="22"/>
+      <c r="DL78" s="22"/>
+      <c r="DM78" s="22"/>
+      <c r="DN78" s="22"/>
+      <c r="DO78" s="22"/>
+      <c r="DP78" s="22"/>
+      <c r="DQ78" s="22"/>
+      <c r="DR78" s="22"/>
+      <c r="DS78" s="22"/>
+      <c r="DT78" s="22"/>
+      <c r="DU78" s="22"/>
+      <c r="DV78" s="22"/>
+      <c r="DW78" s="22"/>
+      <c r="DX78" s="22"/>
+      <c r="DY78" s="22"/>
+      <c r="DZ78" s="22"/>
+      <c r="EA78" s="22"/>
+      <c r="EB78" s="22"/>
+      <c r="EC78" s="22"/>
+      <c r="ED78" s="22"/>
+      <c r="EE78" s="22"/>
+      <c r="EF78" s="22"/>
+      <c r="EG78" s="22"/>
+      <c r="EH78" s="22"/>
+      <c r="EI78" s="22"/>
+      <c r="EJ78" s="22"/>
+      <c r="EK78" s="22"/>
+      <c r="EL78" s="22"/>
+      <c r="EM78" s="22"/>
+      <c r="EN78" s="22"/>
+      <c r="EO78" s="22"/>
+      <c r="EP78" s="22"/>
+      <c r="EQ78" s="22"/>
+      <c r="ER78" s="22"/>
+      <c r="ES78" s="22"/>
+      <c r="ET78" s="22"/>
+      <c r="EU78" s="22"/>
+      <c r="EV78" s="22"/>
+      <c r="EW78" s="22"/>
+      <c r="EX78" s="22"/>
+      <c r="EY78" s="22"/>
+      <c r="EZ78" s="22"/>
+      <c r="FA78" s="22"/>
+      <c r="FB78" s="22"/>
+      <c r="FC78" s="22"/>
+      <c r="FD78" s="22"/>
+      <c r="FE78" s="22"/>
+      <c r="FF78" s="22"/>
+      <c r="FG78" s="22"/>
+      <c r="FH78" s="22"/>
+      <c r="FI78" s="22"/>
+      <c r="FJ78" s="22"/>
+      <c r="FK78" s="22"/>
+      <c r="FL78" s="22"/>
+      <c r="FM78" s="22"/>
+      <c r="FN78" s="22"/>
+      <c r="FO78" s="22"/>
+      <c r="FP78" s="22"/>
+      <c r="FQ78" s="22"/>
+      <c r="FR78" s="22"/>
+      <c r="FS78" s="22"/>
+      <c r="FT78" s="22"/>
+      <c r="FU78" s="22"/>
+      <c r="FV78" s="22"/>
+      <c r="FW78" s="22"/>
+      <c r="FX78" s="22"/>
+      <c r="FY78" s="22"/>
+      <c r="FZ78" s="22"/>
+      <c r="GA78" s="22"/>
+      <c r="GB78" s="22"/>
+      <c r="GC78" s="22"/>
+      <c r="GD78" s="22"/>
+      <c r="GE78" s="22"/>
+      <c r="GF78" s="22"/>
+      <c r="GG78" s="22"/>
+      <c r="GH78" s="22"/>
+      <c r="GI78" s="22"/>
+      <c r="GJ78" s="22"/>
+      <c r="GK78" s="22"/>
+      <c r="GL78" s="22"/>
+      <c r="GM78" s="22"/>
+      <c r="GN78" s="22"/>
+      <c r="GO78" s="22"/>
+      <c r="GP78" s="22"/>
+      <c r="GQ78" s="22"/>
+      <c r="GR78" s="22"/>
+      <c r="GS78" s="22"/>
+      <c r="GT78" s="22"/>
+      <c r="GU78" s="22"/>
+      <c r="GV78" s="22"/>
+      <c r="GW78" s="22"/>
+      <c r="GX78" s="22"/>
+      <c r="GY78" s="22"/>
+      <c r="GZ78" s="22"/>
+      <c r="HA78" s="22"/>
+      <c r="HB78" s="22"/>
+      <c r="HC78" s="22"/>
+      <c r="HD78" s="22"/>
+      <c r="HE78" s="22"/>
+      <c r="HF78" s="22"/>
+      <c r="HG78" s="22"/>
+      <c r="HH78" s="22"/>
+      <c r="HI78" s="22"/>
+      <c r="HJ78" s="22"/>
+      <c r="HK78" s="22"/>
+      <c r="HL78" s="22"/>
+      <c r="HM78" s="22"/>
+      <c r="HN78" s="22"/>
+      <c r="HO78" s="22"/>
+      <c r="HP78" s="22"/>
+      <c r="HQ78" s="22"/>
+      <c r="HR78" s="22"/>
+      <c r="HS78" s="22"/>
+      <c r="HT78" s="22"/>
+      <c r="HU78" s="22"/>
+      <c r="HV78" s="22"/>
+      <c r="HW78" s="22"/>
+      <c r="HX78" s="22"/>
+      <c r="HY78" s="22"/>
+      <c r="HZ78" s="22"/>
+      <c r="IA78" s="22"/>
+      <c r="IB78" s="22"/>
+      <c r="IC78" s="22"/>
+      <c r="ID78" s="22"/>
+      <c r="IE78" s="22"/>
+      <c r="IF78" s="22"/>
+      <c r="IG78" s="22"/>
+      <c r="IH78" s="22"/>
+      <c r="II78" s="22"/>
+      <c r="IJ78" s="22"/>
+      <c r="IK78" s="22"/>
+      <c r="IL78" s="22"/>
+      <c r="IM78" s="22"/>
+      <c r="IN78" s="22"/>
+      <c r="IO78" s="22"/>
+      <c r="IP78" s="22"/>
+      <c r="IQ78" s="22"/>
+      <c r="IR78" s="22"/>
+      <c r="IS78" s="22"/>
+      <c r="IT78" s="22"/>
+      <c r="IU78" s="22"/>
+      <c r="IV78" s="22"/>
+      <c r="IW78" s="22"/>
+      <c r="IX78" s="22"/>
+      <c r="IY78" s="22"/>
+      <c r="IZ78" s="22"/>
+      <c r="JA78" s="22"/>
+      <c r="JB78" s="22"/>
+      <c r="JC78" s="22"/>
+      <c r="JD78" s="22"/>
+      <c r="JE78" s="22"/>
+      <c r="JF78" s="22"/>
+      <c r="JG78" s="22"/>
+      <c r="JH78" s="22"/>
+      <c r="JI78" s="22"/>
+      <c r="JJ78" s="22"/>
+      <c r="JK78" s="22"/>
+      <c r="JL78" s="22"/>
+      <c r="JM78" s="22"/>
+      <c r="JN78" s="22"/>
+      <c r="JO78" s="22"/>
+      <c r="JP78" s="22"/>
+      <c r="JQ78" s="22"/>
+      <c r="JR78" s="22"/>
+      <c r="JS78" s="22"/>
+      <c r="JT78" s="22"/>
+      <c r="JU78" s="22"/>
+      <c r="JV78" s="22"/>
+      <c r="JW78" s="22"/>
+      <c r="JX78" s="22"/>
+      <c r="JY78" s="22"/>
+      <c r="JZ78" s="22"/>
+      <c r="KA78" s="22"/>
+      <c r="KB78" s="22"/>
+      <c r="KC78" s="22"/>
+      <c r="KD78" s="22"/>
+      <c r="KE78" s="22"/>
+      <c r="KF78" s="22"/>
+      <c r="KG78" s="22"/>
+      <c r="KH78" s="22"/>
+      <c r="KI78" s="22"/>
+      <c r="KJ78" s="22"/>
+      <c r="KK78" s="22"/>
+      <c r="KL78" s="22"/>
+      <c r="KM78" s="22"/>
+      <c r="KN78" s="22"/>
+      <c r="KO78" s="22"/>
+      <c r="KP78" s="22"/>
+      <c r="KQ78" s="22"/>
+      <c r="KR78" s="22"/>
+      <c r="KS78" s="22"/>
+      <c r="KT78" s="22"/>
+      <c r="KU78" s="22"/>
+      <c r="KV78" s="22"/>
+      <c r="KW78" s="22"/>
+      <c r="KX78" s="22"/>
+      <c r="KY78" s="22"/>
+      <c r="KZ78" s="22"/>
+      <c r="LA78" s="22"/>
+      <c r="LB78" s="22"/>
+      <c r="LC78" s="22"/>
+      <c r="LD78" s="22"/>
+      <c r="LE78" s="22"/>
+      <c r="LF78" s="22"/>
+      <c r="LG78" s="22"/>
+      <c r="LH78" s="22"/>
+      <c r="LI78" s="22"/>
+      <c r="LJ78" s="22"/>
+      <c r="LK78" s="22"/>
+      <c r="LL78" s="22"/>
+      <c r="LM78" s="22"/>
+      <c r="LN78" s="22"/>
+      <c r="LO78" s="22"/>
+      <c r="LP78" s="22"/>
+      <c r="LQ78" s="22"/>
+      <c r="LR78" s="22"/>
+      <c r="LS78" s="22"/>
+      <c r="LT78" s="22"/>
+      <c r="LU78" s="22"/>
+      <c r="LV78" s="22"/>
+      <c r="LW78" s="22"/>
+      <c r="LX78" s="22"/>
+      <c r="LY78" s="22"/>
+      <c r="LZ78" s="22"/>
+      <c r="MA78" s="22"/>
+      <c r="MB78" s="22"/>
+      <c r="MC78" s="22"/>
+      <c r="MD78" s="22"/>
+      <c r="ME78" s="22"/>
+      <c r="MF78" s="22"/>
+      <c r="MG78" s="22"/>
+      <c r="MH78" s="22"/>
+      <c r="MI78" s="22"/>
+      <c r="MJ78" s="22"/>
+      <c r="MK78" s="22"/>
+      <c r="ML78" s="22"/>
+      <c r="MM78" s="22"/>
+      <c r="MN78" s="22"/>
+      <c r="MO78" s="22"/>
+      <c r="MP78" s="22"/>
+      <c r="MQ78" s="22"/>
+      <c r="MR78" s="22"/>
+      <c r="MS78" s="22"/>
+      <c r="MT78" s="22"/>
+      <c r="MU78" s="22"/>
+      <c r="MV78" s="22"/>
+      <c r="MW78" s="22"/>
+      <c r="MX78" s="22"/>
+      <c r="MY78" s="22"/>
+      <c r="MZ78" s="22"/>
+      <c r="NA78" s="22"/>
+      <c r="NB78" s="22"/>
+      <c r="NC78" s="22"/>
+      <c r="ND78" s="22"/>
+      <c r="NE78" s="22"/>
+      <c r="NF78" s="22"/>
+      <c r="NG78" s="22"/>
+      <c r="NH78" s="22"/>
+      <c r="NI78" s="22"/>
+      <c r="NJ78" s="22"/>
+      <c r="NK78" s="22"/>
+      <c r="NL78" s="22"/>
+      <c r="NM78" s="22"/>
+      <c r="NN78" s="22"/>
+      <c r="NO78" s="22"/>
+      <c r="NP78" s="22"/>
+      <c r="NQ78" s="22"/>
+      <c r="NR78" s="22"/>
+      <c r="NS78" s="22"/>
+      <c r="NT78" s="22"/>
+      <c r="NU78" s="22"/>
+      <c r="NV78" s="22"/>
+      <c r="NW78" s="22"/>
+      <c r="NX78" s="22"/>
+      <c r="NY78" s="22"/>
+      <c r="NZ78" s="22"/>
+      <c r="OA78" s="22"/>
+      <c r="OB78" s="22"/>
+      <c r="OC78" s="22"/>
+      <c r="OD78" s="22"/>
+      <c r="OE78" s="22"/>
+      <c r="OF78" s="22"/>
+      <c r="OG78" s="22"/>
+      <c r="OH78" s="22"/>
+      <c r="OI78" s="22"/>
+      <c r="OJ78" s="22"/>
+      <c r="OK78" s="22"/>
+      <c r="OL78" s="22"/>
+      <c r="OM78" s="22"/>
+      <c r="ON78" s="22"/>
+      <c r="OO78" s="22"/>
+      <c r="OP78" s="22"/>
+      <c r="OQ78" s="22"/>
+      <c r="OR78" s="22"/>
+      <c r="OS78" s="22"/>
+      <c r="OT78" s="22"/>
+      <c r="OU78" s="22"/>
+      <c r="OV78" s="22"/>
+      <c r="OW78" s="22"/>
+      <c r="OX78" s="22"/>
+      <c r="OY78" s="22"/>
+      <c r="OZ78" s="22"/>
+      <c r="PA78" s="22"/>
+      <c r="PB78" s="22"/>
+      <c r="PC78" s="22"/>
+      <c r="PD78" s="22"/>
+      <c r="PE78" s="22"/>
+      <c r="PF78" s="22"/>
+      <c r="PG78" s="22"/>
+      <c r="PH78" s="22"/>
+      <c r="PI78" s="22"/>
+      <c r="PJ78" s="22"/>
+      <c r="PK78" s="22"/>
+      <c r="PL78" s="22"/>
+      <c r="PM78" s="22"/>
+      <c r="PN78" s="22"/>
+      <c r="PO78" s="22"/>
+      <c r="PP78" s="22"/>
+      <c r="PQ78" s="22"/>
+      <c r="PR78" s="22"/>
+      <c r="PS78" s="22"/>
+      <c r="PT78" s="22"/>
+      <c r="PU78" s="22"/>
+      <c r="PV78" s="22"/>
+      <c r="PW78" s="22"/>
+      <c r="PX78" s="22"/>
+      <c r="PY78" s="22"/>
+      <c r="PZ78" s="22"/>
+      <c r="QA78" s="22"/>
+      <c r="QB78" s="22"/>
+      <c r="QC78" s="22"/>
+      <c r="QD78" s="22"/>
+      <c r="QE78" s="22"/>
+      <c r="QF78" s="22"/>
+      <c r="QG78" s="22"/>
+      <c r="QH78" s="22"/>
+      <c r="QI78" s="22"/>
+      <c r="QJ78" s="22"/>
+      <c r="QK78" s="22"/>
+      <c r="QL78" s="22"/>
+      <c r="QM78" s="22"/>
+      <c r="QN78" s="22"/>
+      <c r="QO78" s="22"/>
+      <c r="QP78" s="22"/>
+      <c r="QQ78" s="22"/>
+      <c r="QR78" s="22"/>
+      <c r="QS78" s="22"/>
+      <c r="QT78" s="22"/>
+      <c r="QU78" s="22"/>
+      <c r="QV78" s="22"/>
+      <c r="QW78" s="22"/>
+      <c r="QX78" s="22"/>
+      <c r="QY78" s="22"/>
+      <c r="QZ78" s="22"/>
+      <c r="RA78" s="22"/>
+      <c r="RB78" s="22"/>
+      <c r="RC78" s="22"/>
+      <c r="RD78" s="22"/>
+      <c r="RE78" s="22"/>
+      <c r="RF78" s="22"/>
+      <c r="RG78" s="22"/>
+      <c r="RH78" s="22"/>
+      <c r="RI78" s="22"/>
+      <c r="RJ78" s="22"/>
+      <c r="RK78" s="22"/>
+      <c r="RL78" s="22"/>
+      <c r="RM78" s="22"/>
+      <c r="RN78" s="22"/>
+      <c r="RO78" s="22"/>
+      <c r="RP78" s="22"/>
+      <c r="RQ78" s="22"/>
+      <c r="RR78" s="22"/>
+      <c r="RS78" s="22"/>
+      <c r="RT78" s="22"/>
+      <c r="RU78" s="22"/>
+      <c r="RV78" s="22"/>
+      <c r="RW78" s="22"/>
+      <c r="RX78" s="22"/>
+      <c r="RY78" s="22"/>
+      <c r="RZ78" s="22"/>
+      <c r="SA78" s="22"/>
+      <c r="SB78" s="22"/>
+      <c r="SC78" s="22"/>
+      <c r="SD78" s="22"/>
+      <c r="SE78" s="22"/>
+      <c r="SF78" s="22"/>
+      <c r="SG78" s="22"/>
+      <c r="SH78" s="22"/>
+      <c r="SI78" s="22"/>
+      <c r="SJ78" s="22"/>
+      <c r="SK78" s="22"/>
+      <c r="SL78" s="22"/>
+      <c r="SM78" s="22"/>
+      <c r="SN78" s="22"/>
+      <c r="SO78" s="22"/>
+      <c r="SP78" s="22"/>
+      <c r="SQ78" s="22"/>
+      <c r="SR78" s="22"/>
+      <c r="SS78" s="22"/>
+      <c r="ST78" s="22"/>
+      <c r="SU78" s="22"/>
+      <c r="SV78" s="22"/>
+      <c r="SW78" s="22"/>
+      <c r="SX78" s="22"/>
+      <c r="SY78" s="22"/>
+      <c r="SZ78" s="22"/>
+      <c r="TA78" s="22"/>
+      <c r="TB78" s="22"/>
+      <c r="TC78" s="22"/>
+      <c r="TD78" s="22"/>
+      <c r="TE78" s="22"/>
+      <c r="TF78" s="22"/>
+      <c r="TG78" s="22"/>
+      <c r="TH78" s="22"/>
+      <c r="TI78" s="22"/>
+      <c r="TJ78" s="22"/>
+      <c r="TK78" s="22"/>
+      <c r="TL78" s="22"/>
+      <c r="TM78" s="22"/>
+      <c r="TN78" s="22"/>
+      <c r="TO78" s="22"/>
+      <c r="TP78" s="22"/>
+      <c r="TQ78" s="22"/>
+      <c r="TR78" s="22"/>
+      <c r="TS78" s="22"/>
+      <c r="TT78" s="22"/>
+      <c r="TU78" s="22"/>
+      <c r="TV78" s="22"/>
+      <c r="TW78" s="22"/>
+      <c r="TX78" s="22"/>
+      <c r="TY78" s="22"/>
+      <c r="TZ78" s="22"/>
+      <c r="UA78" s="22"/>
+      <c r="UB78" s="22"/>
+      <c r="UC78" s="22"/>
+      <c r="UD78" s="22"/>
+      <c r="UE78" s="22"/>
+      <c r="UF78" s="22"/>
+      <c r="UG78" s="22"/>
+      <c r="UH78" s="22"/>
+      <c r="UI78" s="22"/>
+      <c r="UJ78" s="22"/>
+      <c r="UK78" s="22"/>
+      <c r="UL78" s="22"/>
+      <c r="UM78" s="22"/>
+      <c r="UN78" s="22"/>
+      <c r="UO78" s="22"/>
+      <c r="UP78" s="22"/>
+      <c r="UQ78" s="22"/>
+      <c r="UR78" s="22"/>
+      <c r="US78" s="22"/>
+      <c r="UT78" s="22"/>
+      <c r="UU78" s="22"/>
+      <c r="UV78" s="22"/>
+      <c r="UW78" s="22"/>
+      <c r="UX78" s="22"/>
+      <c r="UY78" s="22"/>
+      <c r="UZ78" s="22"/>
+      <c r="VA78" s="22"/>
+      <c r="VB78" s="22"/>
+      <c r="VC78" s="22"/>
+      <c r="VD78" s="22"/>
+      <c r="VE78" s="22"/>
+      <c r="VF78" s="22"/>
+      <c r="VG78" s="22"/>
+      <c r="VH78" s="22"/>
+      <c r="VI78" s="22"/>
+      <c r="VJ78" s="22"/>
+      <c r="VK78" s="22"/>
+      <c r="VL78" s="22"/>
+      <c r="VM78" s="22"/>
+      <c r="VN78" s="22"/>
+      <c r="VO78" s="22"/>
+      <c r="VP78" s="22"/>
+      <c r="VQ78" s="22"/>
+      <c r="VR78" s="22"/>
+      <c r="VS78" s="22"/>
+      <c r="VT78" s="22"/>
+      <c r="VU78" s="22"/>
+      <c r="VV78" s="22"/>
+      <c r="VW78" s="22"/>
+      <c r="VX78" s="22"/>
+      <c r="VY78" s="22"/>
+      <c r="VZ78" s="22"/>
+      <c r="WA78" s="22"/>
+      <c r="WB78" s="22"/>
+      <c r="WC78" s="22"/>
+      <c r="WD78" s="22"/>
+      <c r="WE78" s="22"/>
+      <c r="WF78" s="22"/>
+      <c r="WG78" s="22"/>
+      <c r="WH78" s="22"/>
+      <c r="WI78" s="22"/>
+      <c r="WJ78" s="22"/>
+      <c r="WK78" s="22"/>
+      <c r="WL78" s="22"/>
+      <c r="WM78" s="22"/>
+      <c r="WN78" s="22"/>
+      <c r="WO78" s="22"/>
+      <c r="WP78" s="22"/>
+      <c r="WQ78" s="22"/>
+      <c r="WR78" s="22"/>
+      <c r="WS78" s="22"/>
+      <c r="WT78" s="22"/>
+      <c r="WU78" s="22"/>
+      <c r="WV78" s="22"/>
+      <c r="WW78" s="22"/>
+      <c r="WX78" s="22"/>
+      <c r="WY78" s="22"/>
+      <c r="WZ78" s="22"/>
+      <c r="XA78" s="22"/>
+      <c r="XB78" s="22"/>
+      <c r="XC78" s="22"/>
+      <c r="XD78" s="22"/>
+      <c r="XE78" s="22"/>
+      <c r="XF78" s="22"/>
+      <c r="XG78" s="22"/>
+      <c r="XH78" s="22"/>
+      <c r="XI78" s="22"/>
+      <c r="XJ78" s="22"/>
+      <c r="XK78" s="22"/>
+      <c r="XL78" s="22"/>
+      <c r="XM78" s="22"/>
+      <c r="XN78" s="22"/>
+      <c r="XO78" s="22"/>
+      <c r="XP78" s="22"/>
+      <c r="XQ78" s="22"/>
+      <c r="XR78" s="22"/>
+      <c r="XS78" s="22"/>
+      <c r="XT78" s="22"/>
+      <c r="XU78" s="22"/>
+      <c r="XV78" s="22"/>
+      <c r="XW78" s="22"/>
+      <c r="XX78" s="22"/>
+      <c r="XY78" s="22"/>
+      <c r="XZ78" s="22"/>
+      <c r="YA78" s="22"/>
+      <c r="YB78" s="22"/>
+      <c r="YC78" s="22"/>
+      <c r="YD78" s="22"/>
+      <c r="YE78" s="22"/>
+      <c r="YF78" s="22"/>
+      <c r="YG78" s="22"/>
+      <c r="YH78" s="22"/>
+      <c r="YI78" s="22"/>
+      <c r="YJ78" s="22"/>
+      <c r="YK78" s="22"/>
+      <c r="YL78" s="22"/>
+      <c r="YM78" s="22"/>
+      <c r="YN78" s="22"/>
+      <c r="YO78" s="22"/>
+      <c r="YP78" s="22"/>
+      <c r="YQ78" s="22"/>
+      <c r="YR78" s="22"/>
+      <c r="YS78" s="22"/>
+      <c r="YT78" s="22"/>
+      <c r="YU78" s="22"/>
+      <c r="YV78" s="22"/>
+      <c r="YW78" s="22"/>
+      <c r="YX78" s="22"/>
+      <c r="YY78" s="22"/>
+      <c r="YZ78" s="22"/>
+      <c r="ZA78" s="22"/>
+      <c r="ZB78" s="22"/>
+      <c r="ZC78" s="22"/>
+      <c r="ZD78" s="22"/>
+      <c r="ZE78" s="22"/>
+      <c r="ZF78" s="22"/>
+      <c r="ZG78" s="22"/>
+      <c r="ZH78" s="22"/>
+      <c r="ZI78" s="22"/>
+      <c r="ZJ78" s="22"/>
+      <c r="ZK78" s="22"/>
+      <c r="ZL78" s="22"/>
+      <c r="ZM78" s="22"/>
+      <c r="ZN78" s="22"/>
+      <c r="ZO78" s="22"/>
+      <c r="ZP78" s="22"/>
+      <c r="ZQ78" s="22"/>
+      <c r="ZR78" s="22"/>
+      <c r="ZS78" s="22"/>
+      <c r="ZT78" s="22"/>
+      <c r="ZU78" s="22"/>
+      <c r="ZV78" s="22"/>
+      <c r="ZW78" s="22"/>
+      <c r="ZX78" s="22"/>
+      <c r="ZY78" s="22"/>
+      <c r="ZZ78" s="22"/>
+      <c r="AAA78" s="22"/>
+      <c r="AAB78" s="22"/>
+      <c r="AAC78" s="22"/>
+      <c r="AAD78" s="22"/>
+      <c r="AAE78" s="22"/>
+      <c r="AAF78" s="22"/>
+      <c r="AAG78" s="22"/>
+      <c r="AAH78" s="22"/>
+      <c r="AAI78" s="22"/>
+      <c r="AAJ78" s="22"/>
+      <c r="AAK78" s="22"/>
+      <c r="AAL78" s="22"/>
+      <c r="AAM78" s="22"/>
+      <c r="AAN78" s="22"/>
+      <c r="AAO78" s="22"/>
+      <c r="AAP78" s="22"/>
+      <c r="AAQ78" s="22"/>
+      <c r="AAR78" s="22"/>
+      <c r="AAS78" s="22"/>
+      <c r="AAT78" s="22"/>
+      <c r="AAU78" s="22"/>
+      <c r="AAV78" s="22"/>
+      <c r="AAW78" s="22"/>
+      <c r="AAX78" s="22"/>
+      <c r="AAY78" s="22"/>
+      <c r="AAZ78" s="22"/>
+      <c r="ABA78" s="22"/>
+      <c r="ABB78" s="22"/>
+      <c r="ABC78" s="22"/>
+      <c r="ABD78" s="22"/>
+      <c r="ABE78" s="22"/>
+      <c r="ABF78" s="22"/>
+      <c r="ABG78" s="22"/>
+      <c r="ABH78" s="22"/>
+      <c r="ABI78" s="22"/>
+      <c r="ABJ78" s="22"/>
+      <c r="ABK78" s="22"/>
+      <c r="ABL78" s="22"/>
+      <c r="ABM78" s="22"/>
+      <c r="ABN78" s="22"/>
+      <c r="ABO78" s="22"/>
+      <c r="ABP78" s="22"/>
+      <c r="ABQ78" s="22"/>
+      <c r="ABR78" s="22"/>
+      <c r="ABS78" s="22"/>
+      <c r="ABT78" s="22"/>
+      <c r="ABU78" s="22"/>
+      <c r="ABV78" s="22"/>
+      <c r="ABW78" s="22"/>
+      <c r="ABX78" s="22"/>
+      <c r="ABY78" s="22"/>
+      <c r="ABZ78" s="22"/>
+      <c r="ACA78" s="22"/>
+      <c r="ACB78" s="22"/>
+      <c r="ACC78" s="22"/>
+      <c r="ACD78" s="22"/>
+      <c r="ACE78" s="22"/>
+      <c r="ACF78" s="22"/>
+      <c r="ACG78" s="22"/>
+      <c r="ACH78" s="22"/>
+      <c r="ACI78" s="22"/>
+      <c r="ACJ78" s="22"/>
+      <c r="ACK78" s="22"/>
+      <c r="ACL78" s="22"/>
+      <c r="ACM78" s="22"/>
+      <c r="ACN78" s="22"/>
+      <c r="ACO78" s="22"/>
+      <c r="ACP78" s="22"/>
+      <c r="ACQ78" s="22"/>
+      <c r="ACR78" s="22"/>
+      <c r="ACS78" s="22"/>
+      <c r="ACT78" s="22"/>
+      <c r="ACU78" s="22"/>
+      <c r="ACV78" s="22"/>
+      <c r="ACW78" s="22"/>
+      <c r="ACX78" s="22"/>
+      <c r="ACY78" s="22"/>
+      <c r="ACZ78" s="22"/>
+      <c r="ADA78" s="22"/>
+      <c r="ADB78" s="22"/>
+      <c r="ADC78" s="22"/>
+      <c r="ADD78" s="22"/>
+      <c r="ADE78" s="22"/>
+      <c r="ADF78" s="22"/>
+      <c r="ADG78" s="22"/>
+      <c r="ADH78" s="22"/>
+      <c r="ADI78" s="22"/>
+      <c r="ADJ78" s="22"/>
+      <c r="ADK78" s="22"/>
+      <c r="ADL78" s="22"/>
+      <c r="ADM78" s="22"/>
+      <c r="ADN78" s="22"/>
+      <c r="ADO78" s="22"/>
+      <c r="ADP78" s="22"/>
+      <c r="ADQ78" s="22"/>
+      <c r="ADR78" s="22"/>
+      <c r="ADS78" s="22"/>
+      <c r="ADT78" s="22"/>
+      <c r="ADU78" s="22"/>
+      <c r="ADV78" s="22"/>
+      <c r="ADW78" s="22"/>
+      <c r="ADX78" s="22"/>
+      <c r="ADY78" s="22"/>
+      <c r="ADZ78" s="22"/>
+      <c r="AEA78" s="22"/>
+      <c r="AEB78" s="22"/>
+      <c r="AEC78" s="22"/>
+      <c r="AED78" s="22"/>
+      <c r="AEE78" s="22"/>
+      <c r="AEF78" s="22"/>
+      <c r="AEG78" s="22"/>
+      <c r="AEH78" s="22"/>
+      <c r="AEI78" s="22"/>
+      <c r="AEJ78" s="22"/>
+      <c r="AEK78" s="22"/>
+      <c r="AEL78" s="22"/>
+      <c r="AEM78" s="22"/>
+      <c r="AEN78" s="22"/>
+      <c r="AEO78" s="22"/>
+      <c r="AEP78" s="22"/>
+      <c r="AEQ78" s="22"/>
+      <c r="AER78" s="22"/>
+      <c r="AES78" s="22"/>
+      <c r="AET78" s="22"/>
+      <c r="AEU78" s="22"/>
+      <c r="AEV78" s="22"/>
+      <c r="AEW78" s="22"/>
+      <c r="AEX78" s="22"/>
+      <c r="AEY78" s="22"/>
+      <c r="AEZ78" s="22"/>
+      <c r="AFA78" s="22"/>
+      <c r="AFB78" s="22"/>
+      <c r="AFC78" s="22"/>
+      <c r="AFD78" s="22"/>
+      <c r="AFE78" s="22"/>
+      <c r="AFF78" s="22"/>
+      <c r="AFG78" s="22"/>
+      <c r="AFH78" s="22"/>
+      <c r="AFI78" s="22"/>
+      <c r="AFJ78" s="22"/>
+      <c r="AFK78" s="22"/>
+      <c r="AFL78" s="22"/>
+      <c r="AFM78" s="22"/>
+      <c r="AFN78" s="22"/>
+      <c r="AFO78" s="22"/>
+      <c r="AFP78" s="22"/>
+      <c r="AFQ78" s="22"/>
+      <c r="AFR78" s="22"/>
+      <c r="AFS78" s="22"/>
+      <c r="AFT78" s="22"/>
+      <c r="AFU78" s="22"/>
+      <c r="AFV78" s="22"/>
+      <c r="AFW78" s="22"/>
+      <c r="AFX78" s="22"/>
+      <c r="AFY78" s="22"/>
+      <c r="AFZ78" s="22"/>
+      <c r="AGA78" s="22"/>
+      <c r="AGB78" s="22"/>
+      <c r="AGC78" s="22"/>
+      <c r="AGD78" s="22"/>
+      <c r="AGE78" s="22"/>
+      <c r="AGF78" s="22"/>
+      <c r="AGG78" s="22"/>
+      <c r="AGH78" s="22"/>
+      <c r="AGI78" s="22"/>
+      <c r="AGJ78" s="22"/>
+      <c r="AGK78" s="22"/>
+      <c r="AGL78" s="22"/>
+      <c r="AGM78" s="22"/>
+      <c r="AGN78" s="22"/>
+      <c r="AGO78" s="22"/>
+      <c r="AGP78" s="22"/>
+      <c r="AGQ78" s="22"/>
+      <c r="AGR78" s="22"/>
+      <c r="AGS78" s="22"/>
+      <c r="AGT78" s="22"/>
+      <c r="AGU78" s="22"/>
+      <c r="AGV78" s="22"/>
+      <c r="AGW78" s="22"/>
+      <c r="AGX78" s="22"/>
+      <c r="AGY78" s="22"/>
+      <c r="AGZ78" s="22"/>
+      <c r="AHA78" s="22"/>
+      <c r="AHB78" s="22"/>
+      <c r="AHC78" s="22"/>
+      <c r="AHD78" s="22"/>
+      <c r="AHE78" s="22"/>
+      <c r="AHF78" s="22"/>
+      <c r="AHG78" s="22"/>
+      <c r="AHH78" s="22"/>
+      <c r="AHI78" s="22"/>
+      <c r="AHJ78" s="22"/>
+      <c r="AHK78" s="22"/>
+      <c r="AHL78" s="22"/>
+      <c r="AHM78" s="22"/>
+      <c r="AHN78" s="22"/>
+      <c r="AHO78" s="22"/>
+      <c r="AHP78" s="22"/>
+      <c r="AHQ78" s="22"/>
+      <c r="AHR78" s="22"/>
+      <c r="AHS78" s="22"/>
+      <c r="AHT78" s="22"/>
+      <c r="AHU78" s="22"/>
+      <c r="AHV78" s="22"/>
+      <c r="AHW78" s="22"/>
+      <c r="AHX78" s="22"/>
+      <c r="AHY78" s="22"/>
+      <c r="AHZ78" s="22"/>
+      <c r="AIA78" s="22"/>
+      <c r="AIB78" s="22"/>
+      <c r="AIC78" s="22"/>
+      <c r="AID78" s="22"/>
+      <c r="AIE78" s="22"/>
+      <c r="AIF78" s="22"/>
+      <c r="AIG78" s="22"/>
+      <c r="AIH78" s="22"/>
+      <c r="AII78" s="22"/>
+      <c r="AIJ78" s="22"/>
+      <c r="AIK78" s="22"/>
+      <c r="AIL78" s="22"/>
+      <c r="AIM78" s="22"/>
+      <c r="AIN78" s="22"/>
+      <c r="AIO78" s="22"/>
+      <c r="AIP78" s="22"/>
+      <c r="AIQ78" s="22"/>
+      <c r="AIR78" s="22"/>
+      <c r="AIS78" s="22"/>
+      <c r="AIT78" s="22"/>
+      <c r="AIU78" s="22"/>
+      <c r="AIV78" s="22"/>
+      <c r="AIW78" s="22"/>
+      <c r="AIX78" s="22"/>
+      <c r="AIY78" s="22"/>
+      <c r="AIZ78" s="22"/>
+      <c r="AJA78" s="22"/>
+      <c r="AJB78" s="22"/>
+      <c r="AJC78" s="22"/>
+      <c r="AJD78" s="22"/>
+      <c r="AJE78" s="22"/>
+      <c r="AJF78" s="22"/>
+      <c r="AJG78" s="22"/>
+      <c r="AJH78" s="22"/>
+      <c r="AJI78" s="22"/>
+      <c r="AJJ78" s="22"/>
+      <c r="AJK78" s="22"/>
+      <c r="AJL78" s="22"/>
+      <c r="AJM78" s="22"/>
+      <c r="AJN78" s="22"/>
+      <c r="AJO78" s="22"/>
+      <c r="AJP78" s="22"/>
+      <c r="AJQ78" s="22"/>
+      <c r="AJR78" s="22"/>
+      <c r="AJS78" s="22"/>
+      <c r="AJT78" s="22"/>
+      <c r="AJU78" s="22"/>
+      <c r="AJV78" s="22"/>
+      <c r="AJW78" s="22"/>
+      <c r="AJX78" s="22"/>
+      <c r="AJY78" s="22"/>
+      <c r="AJZ78" s="22"/>
+      <c r="AKA78" s="22"/>
+      <c r="AKB78" s="22"/>
+      <c r="AKC78" s="22"/>
+      <c r="AKD78" s="22"/>
+      <c r="AKE78" s="22"/>
+      <c r="AKF78" s="22"/>
+      <c r="AKG78" s="22"/>
+      <c r="AKH78" s="22"/>
+      <c r="AKI78" s="22"/>
+      <c r="AKJ78" s="22"/>
+      <c r="AKK78" s="22"/>
+      <c r="AKL78" s="22"/>
+      <c r="AKM78" s="22"/>
+      <c r="AKN78" s="22"/>
+      <c r="AKO78" s="22"/>
+      <c r="AKP78" s="22"/>
+      <c r="AKQ78" s="22"/>
+      <c r="AKR78" s="22"/>
+      <c r="AKS78" s="22"/>
+      <c r="AKT78" s="22"/>
+      <c r="AKU78" s="22"/>
+      <c r="AKV78" s="22"/>
+      <c r="AKW78" s="22"/>
+      <c r="AKX78" s="22"/>
+      <c r="AKY78" s="22"/>
+      <c r="AKZ78" s="22"/>
+      <c r="ALA78" s="22"/>
+      <c r="ALB78" s="22"/>
+      <c r="ALC78" s="22"/>
+      <c r="ALD78" s="22"/>
+      <c r="ALE78" s="22"/>
+      <c r="ALF78" s="22"/>
+      <c r="ALG78" s="22"/>
+      <c r="ALH78" s="22"/>
+      <c r="ALI78" s="22"/>
+      <c r="ALJ78" s="22"/>
+      <c r="ALK78" s="22"/>
+      <c r="ALL78" s="22"/>
+      <c r="ALM78" s="22"/>
+      <c r="ALN78" s="22"/>
+      <c r="ALO78" s="22"/>
+      <c r="ALP78" s="22"/>
+      <c r="ALQ78" s="22"/>
+      <c r="ALR78" s="22"/>
+      <c r="ALS78" s="22"/>
+      <c r="ALT78" s="22"/>
+      <c r="ALU78" s="22"/>
+      <c r="ALV78" s="22"/>
+      <c r="ALW78" s="22"/>
+      <c r="ALX78" s="22"/>
+      <c r="ALY78" s="22"/>
+      <c r="ALZ78" s="22"/>
+      <c r="AMA78" s="22"/>
+      <c r="AMB78" s="22"/>
+      <c r="AMC78" s="22"/>
+      <c r="AMD78" s="22"/>
+      <c r="AME78" s="22"/>
+      <c r="AMF78" s="22"/>
+      <c r="AMG78" s="22"/>
+      <c r="AMH78" s="22"/>
+      <c r="AMI78" s="22"/>
+      <c r="AMJ78" s="22"/>
+      <c r="AMK78" s="22"/>
+      <c r="AML78" s="22"/>
+      <c r="AMM78" s="22"/>
+      <c r="AMN78" s="22"/>
+      <c r="AMO78" s="22"/>
+      <c r="AMP78" s="22"/>
+      <c r="AMQ78" s="22"/>
+      <c r="AMR78" s="22"/>
+      <c r="AMS78" s="22"/>
+      <c r="AMT78" s="22"/>
+      <c r="AMU78" s="22"/>
+      <c r="AMV78" s="22"/>
+      <c r="AMW78" s="22"/>
+      <c r="AMX78" s="22"/>
+      <c r="AMY78" s="22"/>
+      <c r="AMZ78" s="22"/>
+      <c r="ANA78" s="22"/>
+      <c r="ANB78" s="22"/>
+      <c r="ANC78" s="22"/>
+      <c r="AND78" s="22"/>
+      <c r="ANE78" s="22"/>
+      <c r="ANF78" s="22"/>
+      <c r="ANG78" s="22"/>
+      <c r="ANH78" s="22"/>
+      <c r="ANI78" s="22"/>
+      <c r="ANJ78" s="22"/>
+      <c r="ANK78" s="22"/>
+      <c r="ANL78" s="22"/>
+      <c r="ANM78" s="22"/>
+      <c r="ANN78" s="22"/>
+      <c r="ANO78" s="22"/>
+      <c r="ANP78" s="22"/>
+      <c r="ANQ78" s="22"/>
+      <c r="ANR78" s="22"/>
+      <c r="ANS78" s="22"/>
+      <c r="ANT78" s="22"/>
+      <c r="ANU78" s="22"/>
+      <c r="ANV78" s="22"/>
+      <c r="ANW78" s="22"/>
+      <c r="ANX78" s="22"/>
+      <c r="ANY78" s="22"/>
+      <c r="ANZ78" s="22"/>
+      <c r="AOA78" s="22"/>
+      <c r="AOB78" s="22"/>
+      <c r="AOC78" s="22"/>
+      <c r="AOD78" s="22"/>
+      <c r="AOE78" s="22"/>
+      <c r="AOF78" s="22"/>
+      <c r="AOG78" s="22"/>
+      <c r="AOH78" s="22"/>
+      <c r="AOI78" s="22"/>
+      <c r="AOJ78" s="22"/>
+      <c r="AOK78" s="22"/>
+      <c r="AOL78" s="22"/>
+      <c r="AOM78" s="22"/>
+      <c r="AON78" s="22"/>
+      <c r="AOO78" s="22"/>
+      <c r="AOP78" s="22"/>
+      <c r="AOQ78" s="22"/>
+      <c r="AOR78" s="22"/>
+      <c r="AOS78" s="22"/>
+      <c r="AOT78" s="22"/>
+      <c r="AOU78" s="22"/>
+      <c r="AOV78" s="22"/>
+      <c r="AOW78" s="22"/>
+      <c r="AOX78" s="22"/>
+      <c r="AOY78" s="22"/>
+      <c r="AOZ78" s="22"/>
+      <c r="APA78" s="22"/>
+      <c r="APB78" s="22"/>
+      <c r="APC78" s="22"/>
+      <c r="APD78" s="22"/>
+      <c r="APE78" s="22"/>
+      <c r="APF78" s="22"/>
+      <c r="APG78" s="22"/>
+      <c r="APH78" s="22"/>
+      <c r="API78" s="22"/>
+      <c r="APJ78" s="22"/>
+      <c r="APK78" s="22"/>
+      <c r="APL78" s="22"/>
+      <c r="APM78" s="22"/>
+      <c r="APN78" s="22"/>
+      <c r="APO78" s="22"/>
+      <c r="APP78" s="22"/>
+      <c r="APQ78" s="22"/>
+      <c r="APR78" s="22"/>
+      <c r="APS78" s="22"/>
+      <c r="APT78" s="22"/>
+      <c r="APU78" s="22"/>
+      <c r="APV78" s="22"/>
+      <c r="APW78" s="22"/>
+      <c r="APX78" s="22"/>
+      <c r="APY78" s="22"/>
+      <c r="APZ78" s="22"/>
+      <c r="AQA78" s="22"/>
+      <c r="AQB78" s="22"/>
+      <c r="AQC78" s="22"/>
+      <c r="AQD78" s="22"/>
+      <c r="AQE78" s="22"/>
+      <c r="AQF78" s="22"/>
+      <c r="AQG78" s="22"/>
+      <c r="AQH78" s="22"/>
+      <c r="AQI78" s="22"/>
+      <c r="AQJ78" s="22"/>
+      <c r="AQK78" s="22"/>
+      <c r="AQL78" s="22"/>
+      <c r="AQM78" s="22"/>
+      <c r="AQN78" s="22"/>
+      <c r="AQO78" s="22"/>
+      <c r="AQP78" s="22"/>
+      <c r="AQQ78" s="22"/>
+      <c r="AQR78" s="22"/>
+      <c r="AQS78" s="22"/>
+      <c r="AQT78" s="22"/>
+      <c r="AQU78" s="22"/>
+      <c r="AQV78" s="22"/>
+      <c r="AQW78" s="22"/>
+      <c r="AQX78" s="22"/>
+      <c r="AQY78" s="22"/>
+      <c r="AQZ78" s="22"/>
+      <c r="ARA78" s="22"/>
+      <c r="ARB78" s="22"/>
+      <c r="ARC78" s="22"/>
+      <c r="ARD78" s="22"/>
+      <c r="ARE78" s="22"/>
+      <c r="ARF78" s="22"/>
+      <c r="ARG78" s="22"/>
+      <c r="ARH78" s="22"/>
+      <c r="ARI78" s="22"/>
+      <c r="ARJ78" s="22"/>
+      <c r="ARK78" s="22"/>
+      <c r="ARL78" s="22"/>
+      <c r="ARM78" s="22"/>
+      <c r="ARN78" s="22"/>
+      <c r="ARO78" s="22"/>
+      <c r="ARP78" s="22"/>
+      <c r="ARQ78" s="22"/>
+      <c r="ARR78" s="22"/>
+      <c r="ARS78" s="22"/>
+      <c r="ART78" s="22"/>
+      <c r="ARU78" s="22"/>
+      <c r="ARV78" s="22"/>
+      <c r="ARW78" s="22"/>
+      <c r="ARX78" s="22"/>
+      <c r="ARY78" s="22"/>
+      <c r="ARZ78" s="22"/>
+      <c r="ASA78" s="22"/>
+      <c r="ASB78" s="22"/>
+      <c r="ASC78" s="22"/>
+      <c r="ASD78" s="22"/>
+      <c r="ASE78" s="22"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B79" s="3">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C79" s="3">
-        <v>2021.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D79" s="3">
         <v>2022.0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="H79" s="13">
-        <v>2.0</v>
+        <v>115.0</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>327</v>
+        <v>490</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K79" s="14">
-        <v>23.0</v>
+        <v>47.0</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>184</v>
@@ -26253,19 +28581,19 @@
         <v>183</v>
       </c>
       <c r="N79" s="13">
-        <v>1.856E7</v>
+        <v>2.77E7</v>
       </c>
       <c r="O79" s="3">
-        <v>749.0</v>
+        <v>125.0</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>245</v>
       </c>
       <c r="Q79" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="R79" s="16" t="s">
-        <v>183</v>
+        <v>250</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="S79" s="3" t="s">
         <v>188</v>
@@ -26279,15 +28607,15 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B80" s="3">
         <v>2023.0</v>
@@ -26314,7 +28642,7 @@
         <v>192</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K80" s="14">
         <v>145.0</v>
@@ -26352,15 +28680,15 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y80" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B81" s="3">
         <v>2023.0</v>
@@ -26411,7 +28739,7 @@
         <v>230</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>188</v>
@@ -26425,15 +28753,15 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y81" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B82" s="3">
         <v>2023.0</v>
@@ -26457,7 +28785,7 @@
         <v>28.0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>104</v>
@@ -26498,15 +28826,15 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Y82" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B83" s="3">
         <v>2021.0</v>
@@ -26530,7 +28858,7 @@
         <v>3.0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>104</v>
@@ -26548,7 +28876,7 @@
         <v>3.01E7</v>
       </c>
       <c r="O83" s="3">
-        <v>227.5</v>
+        <v>121.0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>245</v>
@@ -26570,15 +28898,15 @@
       </c>
       <c r="W83" s="3"/>
       <c r="X83" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y83" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B84" s="3">
         <v>2023.0</v>
@@ -26629,7 +28957,7 @@
         <v>230</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>188</v>
@@ -26643,7 +28971,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y84" s="3" t="s">
         <v>229</v>
@@ -26651,7 +28979,7 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B85" s="3">
         <v>2023.0</v>
@@ -26716,15 +29044,15 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y85" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B86" s="3">
         <v>2023.0</v>
@@ -26748,7 +29076,7 @@
         <v>26.0</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>254</v>
@@ -26789,15 +29117,15 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Y86" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B87" s="3">
         <v>2023.0</v>
@@ -26862,15 +29190,15 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B88" s="3">
         <v>2023.0</v>
@@ -26894,7 +29222,7 @@
         <v>11.0</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>254</v>
@@ -26935,15 +29263,15 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y88" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B89" s="3">
         <v>2023.0</v>
@@ -26967,7 +29295,7 @@
         <v>4.0</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>254</v>
@@ -26994,7 +29322,7 @@
         <v>230</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>188</v>
@@ -27008,15 +29336,15 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B90" s="3">
         <v>2023.0</v>
@@ -27040,7 +29368,7 @@
         <v>6.0</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>254</v>
@@ -27067,7 +29395,7 @@
         <v>230</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>184</v>
@@ -27081,10 +29409,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="91">
@@ -29946,1964 +32274,1964 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1998.0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1998.0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1999.0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="25">
+        <v>2000.0</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2001.0</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1998.0</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2004.0</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="D7" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="25">
+        <v>2005.0</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="25">
+        <v>2005.0</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="25">
+        <v>2006.0</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="25">
+        <v>2009.0</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="25">
+        <v>2009.0</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B13" s="25">
+        <v>2009.0</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="B14" s="25">
+        <v>2009.0</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B15" s="25">
+        <v>2010.0</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" s="25">
+        <v>2010.0</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="25">
+        <v>2011.0</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2011.0</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="B19" s="25">
+        <v>2012.0</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="B20" s="25">
+        <v>2013.0</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="25">
+        <v>2014.0</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="B23" s="25">
+        <v>2014.0</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B24" s="25">
+        <v>2014.0</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="B26" s="25">
+        <v>2015.0</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2015.0</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B28" s="25">
+        <v>2015.0</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" s="25">
+        <v>2015.0</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B31" s="25">
+        <v>2016.0</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="B32" s="25">
+        <v>2016.0</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="B33" s="25">
+        <v>2016.0</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B34" s="25">
+        <v>2016.0</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="B35" s="25">
+        <v>2016.0</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B37" s="25">
+        <v>2017.0</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="25">
+        <v>2018.0</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F39" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="B40" s="25">
+        <v>2018.0</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B41" s="25">
+        <v>2018.0</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="B42" s="25">
+        <v>2018.0</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="B43" s="25">
+        <v>2018.0</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="B45" s="25">
+        <v>2019.0</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="B46" s="25">
+        <v>2019.0</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="B47" s="25">
+        <v>2019.0</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="25">
+        <v>2019.0</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="B49" s="25">
+        <v>2019.0</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="B50" s="25">
+        <v>2020.0</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="B51" s="25">
+        <v>2020.0</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="B52" s="25">
+        <v>2020.0</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="B53" s="25">
+        <v>2020.0</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="B54" s="25">
+        <v>2020.0</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="B55" s="25">
+        <v>2020.0</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="B56" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="B57" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="B58" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="B59" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="B60" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="F60" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="G60" s="25" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1998.0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="H60" s="25" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="B61" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="G61" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="B62" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="G62" s="25" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1999.0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="B5" s="18">
-        <v>2000.0</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="H62" s="25" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="B63" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2001.0</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="G63" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="B64" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="B7" s="18">
-        <v>2004.0</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="B8" s="18">
-        <v>2005.0</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="B9" s="18">
-        <v>2005.0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2006.0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="G64" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="B65" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2009.0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="18">
-        <v>2009.0</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="B13" s="18">
-        <v>2009.0</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B14" s="18">
-        <v>2009.0</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="G65" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="B66" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B15" s="18">
-        <v>2010.0</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G66" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="B67" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="B68" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="B69" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="B70" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="B16" s="18">
-        <v>2010.0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2011.0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F70" s="25" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="B18" s="18">
-        <v>2011.0</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2012.0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="B20" s="18">
-        <v>2013.0</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="B22" s="18">
-        <v>2014.0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="G70" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B71" s="25">
+        <v>2022.0</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F71" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="B23" s="18">
-        <v>2014.0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="G71" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>824</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="F72" s="25" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="B24" s="18">
-        <v>2014.0</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="G72" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="B73" s="25">
+        <v>2023.0</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="B26" s="18">
-        <v>2015.0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="G73" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="B74" s="25">
+        <v>2023.0</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>832</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F74" s="25" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="B27" s="18">
-        <v>2015.0</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="G74" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="B75" s="25">
+        <v>2023.0</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="B28" s="18">
-        <v>2015.0</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="B29" s="18">
-        <v>2015.0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H30" s="18" t="s">
+      <c r="G75" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="B76" s="25">
+        <v>2023.0</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="B31" s="18">
-        <v>2016.0</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="B32" s="18">
-        <v>2016.0</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="B33" s="18">
-        <v>2016.0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="B34" s="18">
-        <v>2016.0</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="B35" s="18">
-        <v>2016.0</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="B37" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="B39" s="18">
-        <v>2018.0</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="B40" s="18">
-        <v>2018.0</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="B41" s="18">
-        <v>2018.0</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>697</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="18" t="s">
-        <v>699</v>
-      </c>
-      <c r="B42" s="18">
-        <v>2018.0</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="B43" s="18">
-        <v>2018.0</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="18" t="s">
-        <v>707</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>708</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="B45" s="18">
-        <v>2019.0</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="18" t="s">
-        <v>718</v>
-      </c>
-      <c r="B46" s="18">
-        <v>2019.0</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="20" t="s">
-        <v>721</v>
-      </c>
-      <c r="B47" s="18">
-        <v>2019.0</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>724</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="18" t="s">
-        <v>726</v>
-      </c>
-      <c r="B48" s="18">
-        <v>2019.0</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="B49" s="18">
-        <v>2019.0</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="B50" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="B51" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="B52" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="B53" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="18" t="s">
-        <v>752</v>
-      </c>
-      <c r="B54" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="B55" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="18" t="s">
-        <v>758</v>
-      </c>
-      <c r="B56" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>759</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="B57" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>764</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="18" t="s">
-        <v>768</v>
-      </c>
-      <c r="B58" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>769</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="B59" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>772</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="B60" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="B61" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="B62" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>785</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="B63" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>788</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="18" t="s">
-        <v>791</v>
-      </c>
-      <c r="B64" s="18">
-        <v>2021.0</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="B65" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>795</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="B66" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>800</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="B67" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>803</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="18" t="s">
-        <v>806</v>
-      </c>
-      <c r="B68" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>807</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="B69" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>811</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="B70" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>814</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="B71" s="18">
-        <v>2022.0</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>821</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>822</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B73" s="18">
-        <v>2023.0</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="18" t="s">
-        <v>830</v>
-      </c>
-      <c r="B74" s="18">
-        <v>2023.0</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="B75" s="18">
-        <v>2023.0</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>835</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>836</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="B76" s="18">
-        <v>2023.0</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>840</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>842</v>
+      <c r="G76" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
